--- a/server/resource/excel/template_delivery.xlsx
+++ b/server/resource/excel/template_delivery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujun/gva/gin-vue-admin/server/resource/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1733983-5CA2-9745-BC92-5A578990EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5D3CE-FF3E-D54C-81B7-0CB8FB7848D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20720" windowHeight="13420" xr2:uid="{C538948F-8F36-444C-A3AB-77126F948885}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13420" xr2:uid="{C538948F-8F36-444C-A3AB-77126F948885}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,6 +237,27 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -251,27 +272,6 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -713,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,7 +725,7 @@
   <dimension ref="A1:X1252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
@@ -763,21 +763,21 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
       <c r="P6" s="12"/>
       <c r="T6" s="1"/>
       <c r="U6" s="17"/>
@@ -786,21 +786,21 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="12"/>
       <c r="T7" s="1"/>
       <c r="U7" s="17"/>
@@ -809,21 +809,21 @@
       <c r="X7" s="17"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="13"/>
       <c r="T8" s="1"/>
       <c r="U8" s="17"/>
@@ -832,21 +832,21 @@
       <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="13"/>
       <c r="T9" s="1"/>
       <c r="U9" s="17"/>
@@ -855,20 +855,20 @@
       <c r="X9" s="17"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
       <c r="T10" s="1"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
@@ -876,74 +876,74 @@
       <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="27" t="s">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27" t="s">
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="8"/>
@@ -967,35 +967,35 @@
       <c r="S14" s="14"/>
       <c r="T14" s="9"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="33"/>
+      <c r="V14" s="22"/>
       <c r="W14" s="20"/>
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="33"/>
       <c r="V15" s="34"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="23"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="30"/>
     </row>
     <row r="16" spans="1:24" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="8"/>
@@ -1019,7 +1019,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="9"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="33"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="20"/>
       <c r="X16" s="9"/>
     </row>
@@ -1045,7 +1045,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="9"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="33"/>
+      <c r="V17" s="22"/>
       <c r="W17" s="20"/>
       <c r="X17" s="9"/>
     </row>
@@ -1071,7 +1071,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="9"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="20"/>
       <c r="X18" s="9"/>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="9"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="33"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="20"/>
       <c r="X19" s="9"/>
     </row>
@@ -1123,7 +1123,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="9"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="33"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="20"/>
       <c r="X20" s="9"/>
     </row>
@@ -1149,7 +1149,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="9"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="33"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="20"/>
       <c r="X21" s="9"/>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="9"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="33"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="20"/>
       <c r="X22" s="9"/>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="9"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="33"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="20"/>
       <c r="X23" s="9"/>
     </row>
@@ -1227,7 +1227,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="9"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="33"/>
+      <c r="V24" s="22"/>
       <c r="W24" s="20"/>
       <c r="X24" s="9"/>
     </row>
@@ -1253,7 +1253,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="9"/>
       <c r="U25" s="20"/>
-      <c r="V25" s="33"/>
+      <c r="V25" s="22"/>
       <c r="W25" s="20"/>
       <c r="X25" s="9"/>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="9"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="33"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="20"/>
       <c r="X26" s="9"/>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="9"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="33"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="20"/>
       <c r="X27" s="9"/>
     </row>
@@ -1331,7 +1331,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="9"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="33"/>
+      <c r="V28" s="22"/>
       <c r="W28" s="20"/>
       <c r="X28" s="9"/>
     </row>
@@ -1357,7 +1357,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="9"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="33"/>
+      <c r="V29" s="22"/>
       <c r="W29" s="20"/>
       <c r="X29" s="9"/>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="9"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="33"/>
+      <c r="V30" s="22"/>
       <c r="W30" s="20"/>
       <c r="X30" s="9"/>
     </row>
@@ -1409,7 +1409,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="9"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="33"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="20"/>
       <c r="X31" s="9"/>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="9"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="33"/>
+      <c r="V32" s="22"/>
       <c r="W32" s="20"/>
       <c r="X32" s="9"/>
     </row>
@@ -1461,7 +1461,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="9"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="33"/>
+      <c r="V33" s="22"/>
       <c r="W33" s="20"/>
       <c r="X33" s="9"/>
     </row>
@@ -1487,7 +1487,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="9"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="33"/>
+      <c r="V34" s="22"/>
       <c r="W34" s="20"/>
       <c r="X34" s="9"/>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="9"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="33"/>
+      <c r="V35" s="22"/>
       <c r="W35" s="20"/>
       <c r="X35" s="9"/>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="9"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="33"/>
+      <c r="V36" s="22"/>
       <c r="W36" s="20"/>
       <c r="X36" s="9"/>
     </row>
@@ -1565,7 +1565,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="9"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="33"/>
+      <c r="V37" s="22"/>
       <c r="W37" s="20"/>
       <c r="X37" s="9"/>
     </row>
@@ -1591,7 +1591,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="9"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="33"/>
+      <c r="V38" s="22"/>
       <c r="W38" s="20"/>
       <c r="X38" s="9"/>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="9"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="33"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="20"/>
       <c r="X39" s="9"/>
     </row>
@@ -1643,7 +1643,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="9"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="33"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="20"/>
       <c r="X40" s="9"/>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="9"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="33"/>
+      <c r="V41" s="22"/>
       <c r="W41" s="20"/>
       <c r="X41" s="9"/>
     </row>
@@ -1695,7 +1695,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="9"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="33"/>
+      <c r="V42" s="22"/>
       <c r="W42" s="20"/>
       <c r="X42" s="9"/>
     </row>
@@ -1721,7 +1721,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="9"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="33"/>
+      <c r="V43" s="22"/>
       <c r="W43" s="20"/>
       <c r="X43" s="9"/>
     </row>
@@ -1747,7 +1747,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="9"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="33"/>
+      <c r="V44" s="22"/>
       <c r="W44" s="20"/>
       <c r="X44" s="9"/>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="S45" s="14"/>
       <c r="T45" s="9"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="33"/>
+      <c r="V45" s="22"/>
       <c r="W45" s="20"/>
       <c r="X45" s="9"/>
     </row>
@@ -1799,7 +1799,7 @@
       <c r="S46" s="14"/>
       <c r="T46" s="9"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="33"/>
+      <c r="V46" s="22"/>
       <c r="W46" s="20"/>
       <c r="X46" s="9"/>
     </row>
@@ -1825,7 +1825,7 @@
       <c r="S47" s="14"/>
       <c r="T47" s="9"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="33"/>
+      <c r="V47" s="22"/>
       <c r="W47" s="20"/>
       <c r="X47" s="9"/>
     </row>
@@ -1851,7 +1851,7 @@
       <c r="S48" s="14"/>
       <c r="T48" s="9"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="33"/>
+      <c r="V48" s="22"/>
       <c r="W48" s="20"/>
       <c r="X48" s="9"/>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="S49" s="14"/>
       <c r="T49" s="9"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="33"/>
+      <c r="V49" s="22"/>
       <c r="W49" s="20"/>
       <c r="X49" s="9"/>
     </row>
@@ -1903,7 +1903,7 @@
       <c r="S50" s="14"/>
       <c r="T50" s="9"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="33"/>
+      <c r="V50" s="22"/>
       <c r="W50" s="20"/>
       <c r="X50" s="9"/>
     </row>
@@ -1929,7 +1929,7 @@
       <c r="S51" s="14"/>
       <c r="T51" s="9"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="33"/>
+      <c r="V51" s="22"/>
       <c r="W51" s="20"/>
       <c r="X51" s="9"/>
     </row>
@@ -1955,7 +1955,7 @@
       <c r="S52" s="14"/>
       <c r="T52" s="9"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="33"/>
+      <c r="V52" s="22"/>
       <c r="W52" s="20"/>
       <c r="X52" s="9"/>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="S53" s="14"/>
       <c r="T53" s="9"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="33"/>
+      <c r="V53" s="22"/>
       <c r="W53" s="20"/>
       <c r="X53" s="9"/>
     </row>
@@ -2007,7 +2007,7 @@
       <c r="S54" s="14"/>
       <c r="T54" s="9"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="33"/>
+      <c r="V54" s="22"/>
       <c r="W54" s="20"/>
       <c r="X54" s="9"/>
     </row>
@@ -2033,7 +2033,7 @@
       <c r="S55" s="14"/>
       <c r="T55" s="9"/>
       <c r="U55" s="20"/>
-      <c r="V55" s="33"/>
+      <c r="V55" s="22"/>
       <c r="W55" s="20"/>
       <c r="X55" s="9"/>
     </row>
@@ -2059,7 +2059,7 @@
       <c r="S56" s="14"/>
       <c r="T56" s="9"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="33"/>
+      <c r="V56" s="22"/>
       <c r="W56" s="20"/>
       <c r="X56" s="9"/>
     </row>
@@ -2085,7 +2085,7 @@
       <c r="S57" s="14"/>
       <c r="T57" s="9"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="33"/>
+      <c r="V57" s="22"/>
       <c r="W57" s="20"/>
       <c r="X57" s="9"/>
     </row>
@@ -2111,7 +2111,7 @@
       <c r="S58" s="14"/>
       <c r="T58" s="9"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="33"/>
+      <c r="V58" s="22"/>
       <c r="W58" s="20"/>
       <c r="X58" s="9"/>
     </row>
@@ -2137,7 +2137,7 @@
       <c r="S59" s="14"/>
       <c r="T59" s="9"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="33"/>
+      <c r="V59" s="22"/>
       <c r="W59" s="20"/>
       <c r="X59" s="9"/>
     </row>
@@ -2163,7 +2163,7 @@
       <c r="S60" s="14"/>
       <c r="T60" s="9"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="33"/>
+      <c r="V60" s="22"/>
       <c r="W60" s="20"/>
       <c r="X60" s="9"/>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="S61" s="14"/>
       <c r="T61" s="9"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="33"/>
+      <c r="V61" s="22"/>
       <c r="W61" s="20"/>
       <c r="X61" s="9"/>
     </row>
@@ -2215,7 +2215,7 @@
       <c r="S62" s="14"/>
       <c r="T62" s="9"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="33"/>
+      <c r="V62" s="22"/>
       <c r="W62" s="20"/>
       <c r="X62" s="9"/>
     </row>
@@ -2241,7 +2241,7 @@
       <c r="S63" s="14"/>
       <c r="T63" s="9"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="33"/>
+      <c r="V63" s="22"/>
       <c r="W63" s="20"/>
       <c r="X63" s="9"/>
     </row>
@@ -2267,7 +2267,7 @@
       <c r="S64" s="14"/>
       <c r="T64" s="9"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="33"/>
+      <c r="V64" s="22"/>
       <c r="W64" s="20"/>
       <c r="X64" s="9"/>
     </row>
@@ -2293,7 +2293,7 @@
       <c r="S65" s="14"/>
       <c r="T65" s="9"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="33"/>
+      <c r="V65" s="22"/>
       <c r="W65" s="20"/>
       <c r="X65" s="9"/>
     </row>
@@ -2319,7 +2319,7 @@
       <c r="S66" s="14"/>
       <c r="T66" s="9"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="33"/>
+      <c r="V66" s="22"/>
       <c r="W66" s="20"/>
       <c r="X66" s="9"/>
     </row>
@@ -2345,7 +2345,7 @@
       <c r="S67" s="14"/>
       <c r="T67" s="9"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="33"/>
+      <c r="V67" s="22"/>
       <c r="W67" s="20"/>
       <c r="X67" s="9"/>
     </row>
@@ -2371,7 +2371,7 @@
       <c r="S68" s="14"/>
       <c r="T68" s="9"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="33"/>
+      <c r="V68" s="22"/>
       <c r="W68" s="20"/>
       <c r="X68" s="9"/>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="S69" s="14"/>
       <c r="T69" s="9"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="33"/>
+      <c r="V69" s="22"/>
       <c r="W69" s="20"/>
       <c r="X69" s="9"/>
     </row>
@@ -2423,7 +2423,7 @@
       <c r="S70" s="14"/>
       <c r="T70" s="9"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="33"/>
+      <c r="V70" s="22"/>
       <c r="W70" s="20"/>
       <c r="X70" s="9"/>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="S71" s="14"/>
       <c r="T71" s="9"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="33"/>
+      <c r="V71" s="22"/>
       <c r="W71" s="20"/>
       <c r="X71" s="9"/>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="S72" s="14"/>
       <c r="T72" s="9"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="33"/>
+      <c r="V72" s="22"/>
       <c r="W72" s="20"/>
       <c r="X72" s="9"/>
     </row>
@@ -2501,7 +2501,7 @@
       <c r="S73" s="14"/>
       <c r="T73" s="9"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="33"/>
+      <c r="V73" s="22"/>
       <c r="W73" s="20"/>
       <c r="X73" s="9"/>
     </row>
@@ -2527,7 +2527,7 @@
       <c r="S74" s="14"/>
       <c r="T74" s="9"/>
       <c r="U74" s="20"/>
-      <c r="V74" s="33"/>
+      <c r="V74" s="22"/>
       <c r="W74" s="20"/>
       <c r="X74" s="9"/>
     </row>
@@ -2553,7 +2553,7 @@
       <c r="S75" s="14"/>
       <c r="T75" s="9"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="33"/>
+      <c r="V75" s="22"/>
       <c r="W75" s="20"/>
       <c r="X75" s="9"/>
     </row>
@@ -2579,7 +2579,7 @@
       <c r="S76" s="14"/>
       <c r="T76" s="9"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="33"/>
+      <c r="V76" s="22"/>
       <c r="W76" s="20"/>
       <c r="X76" s="9"/>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="S77" s="14"/>
       <c r="T77" s="9"/>
       <c r="U77" s="20"/>
-      <c r="V77" s="33"/>
+      <c r="V77" s="22"/>
       <c r="W77" s="20"/>
       <c r="X77" s="9"/>
     </row>
@@ -2631,7 +2631,7 @@
       <c r="S78" s="14"/>
       <c r="T78" s="9"/>
       <c r="U78" s="20"/>
-      <c r="V78" s="33"/>
+      <c r="V78" s="22"/>
       <c r="W78" s="20"/>
       <c r="X78" s="9"/>
     </row>
@@ -2657,7 +2657,7 @@
       <c r="S79" s="14"/>
       <c r="T79" s="9"/>
       <c r="U79" s="20"/>
-      <c r="V79" s="33"/>
+      <c r="V79" s="22"/>
       <c r="W79" s="20"/>
       <c r="X79" s="9"/>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="S80" s="14"/>
       <c r="T80" s="9"/>
       <c r="U80" s="20"/>
-      <c r="V80" s="33"/>
+      <c r="V80" s="22"/>
       <c r="W80" s="20"/>
       <c r="X80" s="9"/>
     </row>
@@ -2709,7 +2709,7 @@
       <c r="S81" s="14"/>
       <c r="T81" s="9"/>
       <c r="U81" s="20"/>
-      <c r="V81" s="33"/>
+      <c r="V81" s="22"/>
       <c r="W81" s="20"/>
       <c r="X81" s="9"/>
     </row>
@@ -2735,7 +2735,7 @@
       <c r="S82" s="14"/>
       <c r="T82" s="9"/>
       <c r="U82" s="20"/>
-      <c r="V82" s="33"/>
+      <c r="V82" s="22"/>
       <c r="W82" s="20"/>
       <c r="X82" s="9"/>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="S83" s="14"/>
       <c r="T83" s="9"/>
       <c r="U83" s="20"/>
-      <c r="V83" s="33"/>
+      <c r="V83" s="22"/>
       <c r="W83" s="20"/>
       <c r="X83" s="9"/>
     </row>
@@ -2787,7 +2787,7 @@
       <c r="S84" s="14"/>
       <c r="T84" s="9"/>
       <c r="U84" s="20"/>
-      <c r="V84" s="33"/>
+      <c r="V84" s="22"/>
       <c r="W84" s="20"/>
       <c r="X84" s="9"/>
     </row>
@@ -2813,7 +2813,7 @@
       <c r="S85" s="14"/>
       <c r="T85" s="9"/>
       <c r="U85" s="20"/>
-      <c r="V85" s="33"/>
+      <c r="V85" s="22"/>
       <c r="W85" s="20"/>
       <c r="X85" s="9"/>
     </row>
@@ -2839,7 +2839,7 @@
       <c r="S86" s="14"/>
       <c r="T86" s="9"/>
       <c r="U86" s="20"/>
-      <c r="V86" s="33"/>
+      <c r="V86" s="22"/>
       <c r="W86" s="20"/>
       <c r="X86" s="9"/>
     </row>
@@ -2865,7 +2865,7 @@
       <c r="S87" s="14"/>
       <c r="T87" s="9"/>
       <c r="U87" s="20"/>
-      <c r="V87" s="33"/>
+      <c r="V87" s="22"/>
       <c r="W87" s="20"/>
       <c r="X87" s="9"/>
     </row>
@@ -2891,7 +2891,7 @@
       <c r="S88" s="14"/>
       <c r="T88" s="9"/>
       <c r="U88" s="20"/>
-      <c r="V88" s="33"/>
+      <c r="V88" s="22"/>
       <c r="W88" s="20"/>
       <c r="X88" s="9"/>
     </row>
@@ -2917,7 +2917,7 @@
       <c r="S89" s="14"/>
       <c r="T89" s="9"/>
       <c r="U89" s="20"/>
-      <c r="V89" s="33"/>
+      <c r="V89" s="22"/>
       <c r="W89" s="20"/>
       <c r="X89" s="9"/>
     </row>
@@ -2943,7 +2943,7 @@
       <c r="S90" s="14"/>
       <c r="T90" s="9"/>
       <c r="U90" s="20"/>
-      <c r="V90" s="33"/>
+      <c r="V90" s="22"/>
       <c r="W90" s="20"/>
       <c r="X90" s="9"/>
     </row>
@@ -2969,7 +2969,7 @@
       <c r="S91" s="14"/>
       <c r="T91" s="9"/>
       <c r="U91" s="20"/>
-      <c r="V91" s="33"/>
+      <c r="V91" s="22"/>
       <c r="W91" s="20"/>
       <c r="X91" s="9"/>
     </row>
@@ -2995,7 +2995,7 @@
       <c r="S92" s="14"/>
       <c r="T92" s="9"/>
       <c r="U92" s="20"/>
-      <c r="V92" s="33"/>
+      <c r="V92" s="22"/>
       <c r="W92" s="20"/>
       <c r="X92" s="9"/>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="S93" s="14"/>
       <c r="T93" s="9"/>
       <c r="U93" s="20"/>
-      <c r="V93" s="33"/>
+      <c r="V93" s="22"/>
       <c r="W93" s="20"/>
       <c r="X93" s="9"/>
     </row>
@@ -3047,7 +3047,7 @@
       <c r="S94" s="14"/>
       <c r="T94" s="9"/>
       <c r="U94" s="20"/>
-      <c r="V94" s="33"/>
+      <c r="V94" s="22"/>
       <c r="W94" s="20"/>
       <c r="X94" s="9"/>
     </row>
@@ -3073,7 +3073,7 @@
       <c r="S95" s="14"/>
       <c r="T95" s="9"/>
       <c r="U95" s="20"/>
-      <c r="V95" s="33"/>
+      <c r="V95" s="22"/>
       <c r="W95" s="20"/>
       <c r="X95" s="9"/>
     </row>
@@ -3099,7 +3099,7 @@
       <c r="S96" s="14"/>
       <c r="T96" s="9"/>
       <c r="U96" s="20"/>
-      <c r="V96" s="33"/>
+      <c r="V96" s="22"/>
       <c r="W96" s="20"/>
       <c r="X96" s="9"/>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="S97" s="14"/>
       <c r="T97" s="9"/>
       <c r="U97" s="20"/>
-      <c r="V97" s="33"/>
+      <c r="V97" s="22"/>
       <c r="W97" s="20"/>
       <c r="X97" s="9"/>
     </row>
@@ -3151,7 +3151,7 @@
       <c r="S98" s="14"/>
       <c r="T98" s="9"/>
       <c r="U98" s="20"/>
-      <c r="V98" s="33"/>
+      <c r="V98" s="22"/>
       <c r="W98" s="20"/>
       <c r="X98" s="9"/>
     </row>
@@ -3177,7 +3177,7 @@
       <c r="S99" s="14"/>
       <c r="T99" s="9"/>
       <c r="U99" s="20"/>
-      <c r="V99" s="33"/>
+      <c r="V99" s="22"/>
       <c r="W99" s="20"/>
       <c r="X99" s="9"/>
     </row>
@@ -3203,7 +3203,7 @@
       <c r="S100" s="14"/>
       <c r="T100" s="9"/>
       <c r="U100" s="20"/>
-      <c r="V100" s="33"/>
+      <c r="V100" s="22"/>
       <c r="W100" s="20"/>
       <c r="X100" s="9"/>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="S101" s="14"/>
       <c r="T101" s="9"/>
       <c r="U101" s="20"/>
-      <c r="V101" s="33"/>
+      <c r="V101" s="22"/>
       <c r="W101" s="20"/>
       <c r="X101" s="9"/>
     </row>
@@ -3255,7 +3255,7 @@
       <c r="S102" s="14"/>
       <c r="T102" s="9"/>
       <c r="U102" s="20"/>
-      <c r="V102" s="33"/>
+      <c r="V102" s="22"/>
       <c r="W102" s="20"/>
       <c r="X102" s="9"/>
     </row>
@@ -3281,7 +3281,7 @@
       <c r="S103" s="14"/>
       <c r="T103" s="9"/>
       <c r="U103" s="20"/>
-      <c r="V103" s="33"/>
+      <c r="V103" s="22"/>
       <c r="W103" s="20"/>
       <c r="X103" s="9"/>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="S104" s="14"/>
       <c r="T104" s="9"/>
       <c r="U104" s="20"/>
-      <c r="V104" s="33"/>
+      <c r="V104" s="22"/>
       <c r="W104" s="20"/>
       <c r="X104" s="9"/>
     </row>
@@ -3333,7 +3333,7 @@
       <c r="S105" s="14"/>
       <c r="T105" s="9"/>
       <c r="U105" s="20"/>
-      <c r="V105" s="33"/>
+      <c r="V105" s="22"/>
       <c r="W105" s="20"/>
       <c r="X105" s="9"/>
     </row>
@@ -3359,7 +3359,7 @@
       <c r="S106" s="14"/>
       <c r="T106" s="9"/>
       <c r="U106" s="20"/>
-      <c r="V106" s="33"/>
+      <c r="V106" s="22"/>
       <c r="W106" s="20"/>
       <c r="X106" s="9"/>
     </row>
@@ -3385,7 +3385,7 @@
       <c r="S107" s="14"/>
       <c r="T107" s="9"/>
       <c r="U107" s="20"/>
-      <c r="V107" s="33"/>
+      <c r="V107" s="22"/>
       <c r="W107" s="20"/>
       <c r="X107" s="9"/>
     </row>
@@ -3411,7 +3411,7 @@
       <c r="S108" s="14"/>
       <c r="T108" s="9"/>
       <c r="U108" s="20"/>
-      <c r="V108" s="33"/>
+      <c r="V108" s="22"/>
       <c r="W108" s="20"/>
       <c r="X108" s="9"/>
     </row>
@@ -3437,7 +3437,7 @@
       <c r="S109" s="14"/>
       <c r="T109" s="9"/>
       <c r="U109" s="20"/>
-      <c r="V109" s="33"/>
+      <c r="V109" s="22"/>
       <c r="W109" s="20"/>
       <c r="X109" s="9"/>
     </row>
@@ -3463,7 +3463,7 @@
       <c r="S110" s="14"/>
       <c r="T110" s="9"/>
       <c r="U110" s="20"/>
-      <c r="V110" s="33"/>
+      <c r="V110" s="22"/>
       <c r="W110" s="20"/>
       <c r="X110" s="9"/>
     </row>
@@ -3489,7 +3489,7 @@
       <c r="S111" s="14"/>
       <c r="T111" s="9"/>
       <c r="U111" s="20"/>
-      <c r="V111" s="33"/>
+      <c r="V111" s="22"/>
       <c r="W111" s="20"/>
       <c r="X111" s="9"/>
     </row>
@@ -3515,7 +3515,7 @@
       <c r="S112" s="14"/>
       <c r="T112" s="9"/>
       <c r="U112" s="20"/>
-      <c r="V112" s="33"/>
+      <c r="V112" s="22"/>
       <c r="W112" s="20"/>
       <c r="X112" s="9"/>
     </row>
@@ -3541,7 +3541,7 @@
       <c r="S113" s="14"/>
       <c r="T113" s="9"/>
       <c r="U113" s="20"/>
-      <c r="V113" s="33"/>
+      <c r="V113" s="22"/>
       <c r="W113" s="20"/>
       <c r="X113" s="9"/>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="S114" s="14"/>
       <c r="T114" s="9"/>
       <c r="U114" s="20"/>
-      <c r="V114" s="33"/>
+      <c r="V114" s="22"/>
       <c r="W114" s="20"/>
       <c r="X114" s="9"/>
     </row>
@@ -3593,7 +3593,7 @@
       <c r="S115" s="14"/>
       <c r="T115" s="9"/>
       <c r="U115" s="20"/>
-      <c r="V115" s="33"/>
+      <c r="V115" s="22"/>
       <c r="W115" s="20"/>
       <c r="X115" s="9"/>
     </row>
@@ -3619,7 +3619,7 @@
       <c r="S116" s="14"/>
       <c r="T116" s="9"/>
       <c r="U116" s="20"/>
-      <c r="V116" s="33"/>
+      <c r="V116" s="22"/>
       <c r="W116" s="20"/>
       <c r="X116" s="9"/>
     </row>
@@ -3645,7 +3645,7 @@
       <c r="S117" s="14"/>
       <c r="T117" s="9"/>
       <c r="U117" s="20"/>
-      <c r="V117" s="33"/>
+      <c r="V117" s="22"/>
       <c r="W117" s="20"/>
       <c r="X117" s="9"/>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="S118" s="14"/>
       <c r="T118" s="9"/>
       <c r="U118" s="20"/>
-      <c r="V118" s="33"/>
+      <c r="V118" s="22"/>
       <c r="W118" s="20"/>
       <c r="X118" s="9"/>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="S119" s="14"/>
       <c r="T119" s="9"/>
       <c r="U119" s="20"/>
-      <c r="V119" s="33"/>
+      <c r="V119" s="22"/>
       <c r="W119" s="20"/>
       <c r="X119" s="9"/>
     </row>
@@ -3723,7 +3723,7 @@
       <c r="S120" s="14"/>
       <c r="T120" s="9"/>
       <c r="U120" s="20"/>
-      <c r="V120" s="33"/>
+      <c r="V120" s="22"/>
       <c r="W120" s="20"/>
       <c r="X120" s="9"/>
     </row>
@@ -3749,7 +3749,7 @@
       <c r="S121" s="14"/>
       <c r="T121" s="9"/>
       <c r="U121" s="20"/>
-      <c r="V121" s="33"/>
+      <c r="V121" s="22"/>
       <c r="W121" s="20"/>
       <c r="X121" s="9"/>
     </row>
@@ -3775,7 +3775,7 @@
       <c r="S122" s="14"/>
       <c r="T122" s="9"/>
       <c r="U122" s="20"/>
-      <c r="V122" s="33"/>
+      <c r="V122" s="22"/>
       <c r="W122" s="20"/>
       <c r="X122" s="9"/>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="S123" s="14"/>
       <c r="T123" s="9"/>
       <c r="U123" s="20"/>
-      <c r="V123" s="33"/>
+      <c r="V123" s="22"/>
       <c r="W123" s="20"/>
       <c r="X123" s="9"/>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="S124" s="14"/>
       <c r="T124" s="9"/>
       <c r="U124" s="20"/>
-      <c r="V124" s="33"/>
+      <c r="V124" s="22"/>
       <c r="W124" s="20"/>
       <c r="X124" s="9"/>
     </row>
@@ -3853,7 +3853,7 @@
       <c r="S125" s="14"/>
       <c r="T125" s="9"/>
       <c r="U125" s="20"/>
-      <c r="V125" s="33"/>
+      <c r="V125" s="22"/>
       <c r="W125" s="20"/>
       <c r="X125" s="9"/>
     </row>
@@ -3879,7 +3879,7 @@
       <c r="S126" s="14"/>
       <c r="T126" s="9"/>
       <c r="U126" s="20"/>
-      <c r="V126" s="33"/>
+      <c r="V126" s="22"/>
       <c r="W126" s="20"/>
       <c r="X126" s="9"/>
     </row>
@@ -3905,7 +3905,7 @@
       <c r="S127" s="14"/>
       <c r="T127" s="9"/>
       <c r="U127" s="20"/>
-      <c r="V127" s="33"/>
+      <c r="V127" s="22"/>
       <c r="W127" s="20"/>
       <c r="X127" s="9"/>
     </row>
@@ -3931,7 +3931,7 @@
       <c r="S128" s="14"/>
       <c r="T128" s="9"/>
       <c r="U128" s="20"/>
-      <c r="V128" s="33"/>
+      <c r="V128" s="22"/>
       <c r="W128" s="20"/>
       <c r="X128" s="9"/>
     </row>
@@ -3957,7 +3957,7 @@
       <c r="S129" s="14"/>
       <c r="T129" s="9"/>
       <c r="U129" s="20"/>
-      <c r="V129" s="33"/>
+      <c r="V129" s="22"/>
       <c r="W129" s="20"/>
       <c r="X129" s="9"/>
     </row>
@@ -3983,7 +3983,7 @@
       <c r="S130" s="14"/>
       <c r="T130" s="9"/>
       <c r="U130" s="20"/>
-      <c r="V130" s="33"/>
+      <c r="V130" s="22"/>
       <c r="W130" s="20"/>
       <c r="X130" s="9"/>
     </row>
@@ -4009,7 +4009,7 @@
       <c r="S131" s="14"/>
       <c r="T131" s="9"/>
       <c r="U131" s="20"/>
-      <c r="V131" s="33"/>
+      <c r="V131" s="22"/>
       <c r="W131" s="20"/>
       <c r="X131" s="9"/>
     </row>
@@ -4035,7 +4035,7 @@
       <c r="S132" s="14"/>
       <c r="T132" s="9"/>
       <c r="U132" s="20"/>
-      <c r="V132" s="33"/>
+      <c r="V132" s="22"/>
       <c r="W132" s="20"/>
       <c r="X132" s="9"/>
     </row>
@@ -4061,7 +4061,7 @@
       <c r="S133" s="14"/>
       <c r="T133" s="9"/>
       <c r="U133" s="20"/>
-      <c r="V133" s="33"/>
+      <c r="V133" s="22"/>
       <c r="W133" s="20"/>
       <c r="X133" s="9"/>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="S134" s="14"/>
       <c r="T134" s="9"/>
       <c r="U134" s="20"/>
-      <c r="V134" s="33"/>
+      <c r="V134" s="22"/>
       <c r="W134" s="20"/>
       <c r="X134" s="9"/>
     </row>
@@ -4113,7 +4113,7 @@
       <c r="S135" s="14"/>
       <c r="T135" s="9"/>
       <c r="U135" s="20"/>
-      <c r="V135" s="33"/>
+      <c r="V135" s="22"/>
       <c r="W135" s="20"/>
       <c r="X135" s="9"/>
     </row>
@@ -4139,7 +4139,7 @@
       <c r="S136" s="14"/>
       <c r="T136" s="9"/>
       <c r="U136" s="20"/>
-      <c r="V136" s="33"/>
+      <c r="V136" s="22"/>
       <c r="W136" s="20"/>
       <c r="X136" s="9"/>
     </row>
@@ -4165,7 +4165,7 @@
       <c r="S137" s="14"/>
       <c r="T137" s="9"/>
       <c r="U137" s="20"/>
-      <c r="V137" s="33"/>
+      <c r="V137" s="22"/>
       <c r="W137" s="20"/>
       <c r="X137" s="9"/>
     </row>
@@ -4191,7 +4191,7 @@
       <c r="S138" s="14"/>
       <c r="T138" s="9"/>
       <c r="U138" s="20"/>
-      <c r="V138" s="33"/>
+      <c r="V138" s="22"/>
       <c r="W138" s="20"/>
       <c r="X138" s="9"/>
     </row>
@@ -4217,7 +4217,7 @@
       <c r="S139" s="14"/>
       <c r="T139" s="9"/>
       <c r="U139" s="20"/>
-      <c r="V139" s="33"/>
+      <c r="V139" s="22"/>
       <c r="W139" s="20"/>
       <c r="X139" s="9"/>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="S140" s="14"/>
       <c r="T140" s="9"/>
       <c r="U140" s="20"/>
-      <c r="V140" s="33"/>
+      <c r="V140" s="22"/>
       <c r="W140" s="20"/>
       <c r="X140" s="9"/>
     </row>
@@ -4269,7 +4269,7 @@
       <c r="S141" s="14"/>
       <c r="T141" s="9"/>
       <c r="U141" s="20"/>
-      <c r="V141" s="33"/>
+      <c r="V141" s="22"/>
       <c r="W141" s="20"/>
       <c r="X141" s="9"/>
     </row>
@@ -4295,7 +4295,7 @@
       <c r="S142" s="14"/>
       <c r="T142" s="9"/>
       <c r="U142" s="20"/>
-      <c r="V142" s="33"/>
+      <c r="V142" s="22"/>
       <c r="W142" s="20"/>
       <c r="X142" s="9"/>
     </row>
@@ -4321,7 +4321,7 @@
       <c r="S143" s="14"/>
       <c r="T143" s="9"/>
       <c r="U143" s="20"/>
-      <c r="V143" s="33"/>
+      <c r="V143" s="22"/>
       <c r="W143" s="20"/>
       <c r="X143" s="9"/>
     </row>
@@ -4347,7 +4347,7 @@
       <c r="S144" s="14"/>
       <c r="T144" s="9"/>
       <c r="U144" s="20"/>
-      <c r="V144" s="33"/>
+      <c r="V144" s="22"/>
       <c r="W144" s="20"/>
       <c r="X144" s="9"/>
     </row>
@@ -4373,7 +4373,7 @@
       <c r="S145" s="14"/>
       <c r="T145" s="9"/>
       <c r="U145" s="20"/>
-      <c r="V145" s="33"/>
+      <c r="V145" s="22"/>
       <c r="W145" s="20"/>
       <c r="X145" s="9"/>
     </row>
@@ -4399,7 +4399,7 @@
       <c r="S146" s="14"/>
       <c r="T146" s="9"/>
       <c r="U146" s="20"/>
-      <c r="V146" s="33"/>
+      <c r="V146" s="22"/>
       <c r="W146" s="20"/>
       <c r="X146" s="9"/>
     </row>
@@ -4425,7 +4425,7 @@
       <c r="S147" s="14"/>
       <c r="T147" s="9"/>
       <c r="U147" s="20"/>
-      <c r="V147" s="33"/>
+      <c r="V147" s="22"/>
       <c r="W147" s="20"/>
       <c r="X147" s="9"/>
     </row>
@@ -4451,7 +4451,7 @@
       <c r="S148" s="14"/>
       <c r="T148" s="9"/>
       <c r="U148" s="20"/>
-      <c r="V148" s="33"/>
+      <c r="V148" s="22"/>
       <c r="W148" s="20"/>
       <c r="X148" s="9"/>
     </row>
@@ -4477,7 +4477,7 @@
       <c r="S149" s="14"/>
       <c r="T149" s="9"/>
       <c r="U149" s="20"/>
-      <c r="V149" s="33"/>
+      <c r="V149" s="22"/>
       <c r="W149" s="20"/>
       <c r="X149" s="9"/>
     </row>
@@ -4503,7 +4503,7 @@
       <c r="S150" s="14"/>
       <c r="T150" s="9"/>
       <c r="U150" s="20"/>
-      <c r="V150" s="33"/>
+      <c r="V150" s="22"/>
       <c r="W150" s="20"/>
       <c r="X150" s="9"/>
     </row>
@@ -4529,7 +4529,7 @@
       <c r="S151" s="14"/>
       <c r="T151" s="9"/>
       <c r="U151" s="20"/>
-      <c r="V151" s="33"/>
+      <c r="V151" s="22"/>
       <c r="W151" s="20"/>
       <c r="X151" s="9"/>
     </row>
@@ -4555,7 +4555,7 @@
       <c r="S152" s="14"/>
       <c r="T152" s="9"/>
       <c r="U152" s="20"/>
-      <c r="V152" s="33"/>
+      <c r="V152" s="22"/>
       <c r="W152" s="20"/>
       <c r="X152" s="9"/>
     </row>
@@ -4581,7 +4581,7 @@
       <c r="S153" s="14"/>
       <c r="T153" s="9"/>
       <c r="U153" s="20"/>
-      <c r="V153" s="33"/>
+      <c r="V153" s="22"/>
       <c r="W153" s="20"/>
       <c r="X153" s="9"/>
     </row>
@@ -4607,7 +4607,7 @@
       <c r="S154" s="14"/>
       <c r="T154" s="9"/>
       <c r="U154" s="20"/>
-      <c r="V154" s="33"/>
+      <c r="V154" s="22"/>
       <c r="W154" s="20"/>
       <c r="X154" s="9"/>
     </row>
@@ -4633,7 +4633,7 @@
       <c r="S155" s="14"/>
       <c r="T155" s="9"/>
       <c r="U155" s="20"/>
-      <c r="V155" s="33"/>
+      <c r="V155" s="22"/>
       <c r="W155" s="20"/>
       <c r="X155" s="9"/>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="S156" s="14"/>
       <c r="T156" s="9"/>
       <c r="U156" s="20"/>
-      <c r="V156" s="33"/>
+      <c r="V156" s="22"/>
       <c r="W156" s="20"/>
       <c r="X156" s="9"/>
     </row>
@@ -4685,7 +4685,7 @@
       <c r="S157" s="14"/>
       <c r="T157" s="9"/>
       <c r="U157" s="20"/>
-      <c r="V157" s="33"/>
+      <c r="V157" s="22"/>
       <c r="W157" s="20"/>
       <c r="X157" s="9"/>
     </row>
@@ -4711,7 +4711,7 @@
       <c r="S158" s="14"/>
       <c r="T158" s="9"/>
       <c r="U158" s="20"/>
-      <c r="V158" s="33"/>
+      <c r="V158" s="22"/>
       <c r="W158" s="20"/>
       <c r="X158" s="9"/>
     </row>
@@ -4737,7 +4737,7 @@
       <c r="S159" s="14"/>
       <c r="T159" s="9"/>
       <c r="U159" s="20"/>
-      <c r="V159" s="33"/>
+      <c r="V159" s="22"/>
       <c r="W159" s="20"/>
       <c r="X159" s="9"/>
     </row>
@@ -4763,7 +4763,7 @@
       <c r="S160" s="14"/>
       <c r="T160" s="9"/>
       <c r="U160" s="20"/>
-      <c r="V160" s="33"/>
+      <c r="V160" s="22"/>
       <c r="W160" s="20"/>
       <c r="X160" s="9"/>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="S161" s="14"/>
       <c r="T161" s="9"/>
       <c r="U161" s="20"/>
-      <c r="V161" s="33"/>
+      <c r="V161" s="22"/>
       <c r="W161" s="20"/>
       <c r="X161" s="9"/>
     </row>
@@ -4815,7 +4815,7 @@
       <c r="S162" s="14"/>
       <c r="T162" s="9"/>
       <c r="U162" s="20"/>
-      <c r="V162" s="33"/>
+      <c r="V162" s="22"/>
       <c r="W162" s="20"/>
       <c r="X162" s="9"/>
     </row>
@@ -4841,7 +4841,7 @@
       <c r="S163" s="14"/>
       <c r="T163" s="9"/>
       <c r="U163" s="20"/>
-      <c r="V163" s="33"/>
+      <c r="V163" s="22"/>
       <c r="W163" s="20"/>
       <c r="X163" s="9"/>
     </row>
@@ -4867,7 +4867,7 @@
       <c r="S164" s="14"/>
       <c r="T164" s="9"/>
       <c r="U164" s="20"/>
-      <c r="V164" s="33"/>
+      <c r="V164" s="22"/>
       <c r="W164" s="20"/>
       <c r="X164" s="9"/>
     </row>
@@ -4893,7 +4893,7 @@
       <c r="S165" s="14"/>
       <c r="T165" s="9"/>
       <c r="U165" s="20"/>
-      <c r="V165" s="33"/>
+      <c r="V165" s="22"/>
       <c r="W165" s="20"/>
       <c r="X165" s="9"/>
     </row>
@@ -4919,7 +4919,7 @@
       <c r="S166" s="14"/>
       <c r="T166" s="9"/>
       <c r="U166" s="20"/>
-      <c r="V166" s="33"/>
+      <c r="V166" s="22"/>
       <c r="W166" s="20"/>
       <c r="X166" s="9"/>
     </row>
@@ -4945,7 +4945,7 @@
       <c r="S167" s="14"/>
       <c r="T167" s="9"/>
       <c r="U167" s="20"/>
-      <c r="V167" s="33"/>
+      <c r="V167" s="22"/>
       <c r="W167" s="20"/>
       <c r="X167" s="9"/>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="S168" s="14"/>
       <c r="T168" s="9"/>
       <c r="U168" s="20"/>
-      <c r="V168" s="33"/>
+      <c r="V168" s="22"/>
       <c r="W168" s="20"/>
       <c r="X168" s="9"/>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="S169" s="14"/>
       <c r="T169" s="9"/>
       <c r="U169" s="20"/>
-      <c r="V169" s="33"/>
+      <c r="V169" s="22"/>
       <c r="W169" s="20"/>
       <c r="X169" s="9"/>
     </row>
@@ -5023,7 +5023,7 @@
       <c r="S170" s="14"/>
       <c r="T170" s="9"/>
       <c r="U170" s="20"/>
-      <c r="V170" s="33"/>
+      <c r="V170" s="22"/>
       <c r="W170" s="20"/>
       <c r="X170" s="9"/>
     </row>
@@ -5049,7 +5049,7 @@
       <c r="S171" s="14"/>
       <c r="T171" s="9"/>
       <c r="U171" s="20"/>
-      <c r="V171" s="33"/>
+      <c r="V171" s="22"/>
       <c r="W171" s="20"/>
       <c r="X171" s="9"/>
     </row>
@@ -5075,7 +5075,7 @@
       <c r="S172" s="14"/>
       <c r="T172" s="9"/>
       <c r="U172" s="20"/>
-      <c r="V172" s="33"/>
+      <c r="V172" s="22"/>
       <c r="W172" s="20"/>
       <c r="X172" s="9"/>
     </row>
@@ -5101,7 +5101,7 @@
       <c r="S173" s="14"/>
       <c r="T173" s="9"/>
       <c r="U173" s="20"/>
-      <c r="V173" s="33"/>
+      <c r="V173" s="22"/>
       <c r="W173" s="20"/>
       <c r="X173" s="9"/>
     </row>
@@ -5127,7 +5127,7 @@
       <c r="S174" s="14"/>
       <c r="T174" s="9"/>
       <c r="U174" s="20"/>
-      <c r="V174" s="33"/>
+      <c r="V174" s="22"/>
       <c r="W174" s="20"/>
       <c r="X174" s="9"/>
     </row>
@@ -5153,7 +5153,7 @@
       <c r="S175" s="14"/>
       <c r="T175" s="9"/>
       <c r="U175" s="20"/>
-      <c r="V175" s="33"/>
+      <c r="V175" s="22"/>
       <c r="W175" s="20"/>
       <c r="X175" s="9"/>
     </row>
@@ -5179,7 +5179,7 @@
       <c r="S176" s="14"/>
       <c r="T176" s="9"/>
       <c r="U176" s="20"/>
-      <c r="V176" s="33"/>
+      <c r="V176" s="22"/>
       <c r="W176" s="20"/>
       <c r="X176" s="9"/>
     </row>
@@ -5205,7 +5205,7 @@
       <c r="S177" s="14"/>
       <c r="T177" s="9"/>
       <c r="U177" s="20"/>
-      <c r="V177" s="33"/>
+      <c r="V177" s="22"/>
       <c r="W177" s="20"/>
       <c r="X177" s="9"/>
     </row>
@@ -5231,7 +5231,7 @@
       <c r="S178" s="14"/>
       <c r="T178" s="9"/>
       <c r="U178" s="20"/>
-      <c r="V178" s="33"/>
+      <c r="V178" s="22"/>
       <c r="W178" s="20"/>
       <c r="X178" s="9"/>
     </row>
@@ -5257,7 +5257,7 @@
       <c r="S179" s="14"/>
       <c r="T179" s="9"/>
       <c r="U179" s="20"/>
-      <c r="V179" s="33"/>
+      <c r="V179" s="22"/>
       <c r="W179" s="20"/>
       <c r="X179" s="9"/>
     </row>
@@ -5283,7 +5283,7 @@
       <c r="S180" s="14"/>
       <c r="T180" s="9"/>
       <c r="U180" s="20"/>
-      <c r="V180" s="33"/>
+      <c r="V180" s="22"/>
       <c r="W180" s="20"/>
       <c r="X180" s="9"/>
     </row>
@@ -5309,7 +5309,7 @@
       <c r="S181" s="14"/>
       <c r="T181" s="9"/>
       <c r="U181" s="20"/>
-      <c r="V181" s="33"/>
+      <c r="V181" s="22"/>
       <c r="W181" s="20"/>
       <c r="X181" s="9"/>
     </row>
@@ -5335,7 +5335,7 @@
       <c r="S182" s="14"/>
       <c r="T182" s="9"/>
       <c r="U182" s="20"/>
-      <c r="V182" s="33"/>
+      <c r="V182" s="22"/>
       <c r="W182" s="20"/>
       <c r="X182" s="9"/>
     </row>
@@ -5361,7 +5361,7 @@
       <c r="S183" s="14"/>
       <c r="T183" s="9"/>
       <c r="U183" s="20"/>
-      <c r="V183" s="33"/>
+      <c r="V183" s="22"/>
       <c r="W183" s="20"/>
       <c r="X183" s="9"/>
     </row>
@@ -5387,7 +5387,7 @@
       <c r="S184" s="14"/>
       <c r="T184" s="9"/>
       <c r="U184" s="20"/>
-      <c r="V184" s="33"/>
+      <c r="V184" s="22"/>
       <c r="W184" s="20"/>
       <c r="X184" s="9"/>
     </row>
@@ -5413,7 +5413,7 @@
       <c r="S185" s="14"/>
       <c r="T185" s="9"/>
       <c r="U185" s="20"/>
-      <c r="V185" s="33"/>
+      <c r="V185" s="22"/>
       <c r="W185" s="20"/>
       <c r="X185" s="9"/>
     </row>
@@ -5439,7 +5439,7 @@
       <c r="S186" s="14"/>
       <c r="T186" s="9"/>
       <c r="U186" s="20"/>
-      <c r="V186" s="33"/>
+      <c r="V186" s="22"/>
       <c r="W186" s="20"/>
       <c r="X186" s="9"/>
     </row>
@@ -5465,7 +5465,7 @@
       <c r="S187" s="14"/>
       <c r="T187" s="9"/>
       <c r="U187" s="20"/>
-      <c r="V187" s="33"/>
+      <c r="V187" s="22"/>
       <c r="W187" s="20"/>
       <c r="X187" s="9"/>
     </row>
@@ -5491,7 +5491,7 @@
       <c r="S188" s="14"/>
       <c r="T188" s="9"/>
       <c r="U188" s="20"/>
-      <c r="V188" s="33"/>
+      <c r="V188" s="22"/>
       <c r="W188" s="20"/>
       <c r="X188" s="9"/>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="S189" s="14"/>
       <c r="T189" s="9"/>
       <c r="U189" s="20"/>
-      <c r="V189" s="33"/>
+      <c r="V189" s="22"/>
       <c r="W189" s="20"/>
       <c r="X189" s="9"/>
     </row>
@@ -5543,7 +5543,7 @@
       <c r="S190" s="14"/>
       <c r="T190" s="9"/>
       <c r="U190" s="20"/>
-      <c r="V190" s="33"/>
+      <c r="V190" s="22"/>
       <c r="W190" s="20"/>
       <c r="X190" s="9"/>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="S191" s="14"/>
       <c r="T191" s="9"/>
       <c r="U191" s="20"/>
-      <c r="V191" s="33"/>
+      <c r="V191" s="22"/>
       <c r="W191" s="20"/>
       <c r="X191" s="9"/>
     </row>
@@ -5595,7 +5595,7 @@
       <c r="S192" s="14"/>
       <c r="T192" s="9"/>
       <c r="U192" s="20"/>
-      <c r="V192" s="33"/>
+      <c r="V192" s="22"/>
       <c r="W192" s="20"/>
       <c r="X192" s="9"/>
     </row>
@@ -5621,7 +5621,7 @@
       <c r="S193" s="14"/>
       <c r="T193" s="9"/>
       <c r="U193" s="20"/>
-      <c r="V193" s="33"/>
+      <c r="V193" s="22"/>
       <c r="W193" s="20"/>
       <c r="X193" s="9"/>
     </row>
@@ -5647,7 +5647,7 @@
       <c r="S194" s="14"/>
       <c r="T194" s="9"/>
       <c r="U194" s="20"/>
-      <c r="V194" s="33"/>
+      <c r="V194" s="22"/>
       <c r="W194" s="20"/>
       <c r="X194" s="9"/>
     </row>
@@ -5673,7 +5673,7 @@
       <c r="S195" s="14"/>
       <c r="T195" s="9"/>
       <c r="U195" s="20"/>
-      <c r="V195" s="33"/>
+      <c r="V195" s="22"/>
       <c r="W195" s="20"/>
       <c r="X195" s="9"/>
     </row>
@@ -5699,7 +5699,7 @@
       <c r="S196" s="14"/>
       <c r="T196" s="9"/>
       <c r="U196" s="20"/>
-      <c r="V196" s="33"/>
+      <c r="V196" s="22"/>
       <c r="W196" s="20"/>
       <c r="X196" s="9"/>
     </row>
@@ -5725,7 +5725,7 @@
       <c r="S197" s="14"/>
       <c r="T197" s="9"/>
       <c r="U197" s="20"/>
-      <c r="V197" s="33"/>
+      <c r="V197" s="22"/>
       <c r="W197" s="20"/>
       <c r="X197" s="9"/>
     </row>
@@ -5751,7 +5751,7 @@
       <c r="S198" s="14"/>
       <c r="T198" s="9"/>
       <c r="U198" s="20"/>
-      <c r="V198" s="33"/>
+      <c r="V198" s="22"/>
       <c r="W198" s="20"/>
       <c r="X198" s="9"/>
     </row>
@@ -5777,7 +5777,7 @@
       <c r="S199" s="14"/>
       <c r="T199" s="9"/>
       <c r="U199" s="20"/>
-      <c r="V199" s="33"/>
+      <c r="V199" s="22"/>
       <c r="W199" s="20"/>
       <c r="X199" s="9"/>
     </row>
@@ -5803,7 +5803,7 @@
       <c r="S200" s="14"/>
       <c r="T200" s="9"/>
       <c r="U200" s="20"/>
-      <c r="V200" s="33"/>
+      <c r="V200" s="22"/>
       <c r="W200" s="20"/>
       <c r="X200" s="9"/>
     </row>
@@ -5829,7 +5829,7 @@
       <c r="S201" s="14"/>
       <c r="T201" s="9"/>
       <c r="U201" s="20"/>
-      <c r="V201" s="33"/>
+      <c r="V201" s="22"/>
       <c r="W201" s="20"/>
       <c r="X201" s="9"/>
     </row>
@@ -5855,7 +5855,7 @@
       <c r="S202" s="14"/>
       <c r="T202" s="9"/>
       <c r="U202" s="20"/>
-      <c r="V202" s="33"/>
+      <c r="V202" s="22"/>
       <c r="W202" s="20"/>
       <c r="X202" s="9"/>
     </row>
@@ -5881,7 +5881,7 @@
       <c r="S203" s="14"/>
       <c r="T203" s="9"/>
       <c r="U203" s="20"/>
-      <c r="V203" s="33"/>
+      <c r="V203" s="22"/>
       <c r="W203" s="20"/>
       <c r="X203" s="9"/>
     </row>
@@ -5907,7 +5907,7 @@
       <c r="S204" s="14"/>
       <c r="T204" s="9"/>
       <c r="U204" s="20"/>
-      <c r="V204" s="33"/>
+      <c r="V204" s="22"/>
       <c r="W204" s="20"/>
       <c r="X204" s="9"/>
     </row>
@@ -5933,7 +5933,7 @@
       <c r="S205" s="14"/>
       <c r="T205" s="9"/>
       <c r="U205" s="20"/>
-      <c r="V205" s="33"/>
+      <c r="V205" s="22"/>
       <c r="W205" s="20"/>
       <c r="X205" s="9"/>
     </row>
@@ -5959,7 +5959,7 @@
       <c r="S206" s="14"/>
       <c r="T206" s="9"/>
       <c r="U206" s="20"/>
-      <c r="V206" s="33"/>
+      <c r="V206" s="22"/>
       <c r="W206" s="20"/>
       <c r="X206" s="9"/>
     </row>
@@ -5985,7 +5985,7 @@
       <c r="S207" s="14"/>
       <c r="T207" s="9"/>
       <c r="U207" s="20"/>
-      <c r="V207" s="33"/>
+      <c r="V207" s="22"/>
       <c r="W207" s="20"/>
       <c r="X207" s="9"/>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="S208" s="14"/>
       <c r="T208" s="9"/>
       <c r="U208" s="20"/>
-      <c r="V208" s="33"/>
+      <c r="V208" s="22"/>
       <c r="W208" s="20"/>
       <c r="X208" s="9"/>
     </row>
@@ -6037,7 +6037,7 @@
       <c r="S209" s="14"/>
       <c r="T209" s="9"/>
       <c r="U209" s="20"/>
-      <c r="V209" s="33"/>
+      <c r="V209" s="22"/>
       <c r="W209" s="20"/>
       <c r="X209" s="9"/>
     </row>
@@ -6063,7 +6063,7 @@
       <c r="S210" s="14"/>
       <c r="T210" s="9"/>
       <c r="U210" s="20"/>
-      <c r="V210" s="33"/>
+      <c r="V210" s="22"/>
       <c r="W210" s="20"/>
       <c r="X210" s="9"/>
     </row>
@@ -6089,7 +6089,7 @@
       <c r="S211" s="14"/>
       <c r="T211" s="9"/>
       <c r="U211" s="20"/>
-      <c r="V211" s="33"/>
+      <c r="V211" s="22"/>
       <c r="W211" s="20"/>
       <c r="X211" s="9"/>
     </row>
@@ -6115,7 +6115,7 @@
       <c r="S212" s="14"/>
       <c r="T212" s="9"/>
       <c r="U212" s="20"/>
-      <c r="V212" s="33"/>
+      <c r="V212" s="22"/>
       <c r="W212" s="20"/>
       <c r="X212" s="9"/>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="S213" s="14"/>
       <c r="T213" s="9"/>
       <c r="U213" s="20"/>
-      <c r="V213" s="33"/>
+      <c r="V213" s="22"/>
       <c r="W213" s="20"/>
       <c r="X213" s="9"/>
     </row>
@@ -6167,7 +6167,7 @@
       <c r="S214" s="14"/>
       <c r="T214" s="9"/>
       <c r="U214" s="20"/>
-      <c r="V214" s="33"/>
+      <c r="V214" s="22"/>
       <c r="W214" s="20"/>
       <c r="X214" s="9"/>
     </row>
@@ -6193,7 +6193,7 @@
       <c r="S215" s="14"/>
       <c r="T215" s="9"/>
       <c r="U215" s="20"/>
-      <c r="V215" s="33"/>
+      <c r="V215" s="22"/>
       <c r="W215" s="20"/>
       <c r="X215" s="9"/>
     </row>
@@ -6219,7 +6219,7 @@
       <c r="S216" s="14"/>
       <c r="T216" s="9"/>
       <c r="U216" s="20"/>
-      <c r="V216" s="33"/>
+      <c r="V216" s="22"/>
       <c r="W216" s="20"/>
       <c r="X216" s="9"/>
     </row>
@@ -6245,7 +6245,7 @@
       <c r="S217" s="14"/>
       <c r="T217" s="9"/>
       <c r="U217" s="20"/>
-      <c r="V217" s="33"/>
+      <c r="V217" s="22"/>
       <c r="W217" s="20"/>
       <c r="X217" s="9"/>
     </row>
@@ -6271,7 +6271,7 @@
       <c r="S218" s="14"/>
       <c r="T218" s="9"/>
       <c r="U218" s="20"/>
-      <c r="V218" s="33"/>
+      <c r="V218" s="22"/>
       <c r="W218" s="20"/>
       <c r="X218" s="9"/>
     </row>
@@ -6297,7 +6297,7 @@
       <c r="S219" s="14"/>
       <c r="T219" s="9"/>
       <c r="U219" s="20"/>
-      <c r="V219" s="33"/>
+      <c r="V219" s="22"/>
       <c r="W219" s="20"/>
       <c r="X219" s="9"/>
     </row>
@@ -6323,7 +6323,7 @@
       <c r="S220" s="14"/>
       <c r="T220" s="9"/>
       <c r="U220" s="20"/>
-      <c r="V220" s="33"/>
+      <c r="V220" s="22"/>
       <c r="W220" s="20"/>
       <c r="X220" s="9"/>
     </row>
@@ -6349,7 +6349,7 @@
       <c r="S221" s="14"/>
       <c r="T221" s="9"/>
       <c r="U221" s="20"/>
-      <c r="V221" s="33"/>
+      <c r="V221" s="22"/>
       <c r="W221" s="20"/>
       <c r="X221" s="9"/>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="S222" s="14"/>
       <c r="T222" s="9"/>
       <c r="U222" s="20"/>
-      <c r="V222" s="33"/>
+      <c r="V222" s="22"/>
       <c r="W222" s="20"/>
       <c r="X222" s="9"/>
     </row>
@@ -6401,7 +6401,7 @@
       <c r="S223" s="14"/>
       <c r="T223" s="9"/>
       <c r="U223" s="20"/>
-      <c r="V223" s="33"/>
+      <c r="V223" s="22"/>
       <c r="W223" s="20"/>
       <c r="X223" s="9"/>
     </row>
@@ -6427,7 +6427,7 @@
       <c r="S224" s="14"/>
       <c r="T224" s="9"/>
       <c r="U224" s="20"/>
-      <c r="V224" s="33"/>
+      <c r="V224" s="22"/>
       <c r="W224" s="20"/>
       <c r="X224" s="9"/>
     </row>
@@ -6453,7 +6453,7 @@
       <c r="S225" s="14"/>
       <c r="T225" s="9"/>
       <c r="U225" s="20"/>
-      <c r="V225" s="33"/>
+      <c r="V225" s="22"/>
       <c r="W225" s="20"/>
       <c r="X225" s="9"/>
     </row>
@@ -6479,7 +6479,7 @@
       <c r="S226" s="14"/>
       <c r="T226" s="9"/>
       <c r="U226" s="20"/>
-      <c r="V226" s="33"/>
+      <c r="V226" s="22"/>
       <c r="W226" s="20"/>
       <c r="X226" s="9"/>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="S227" s="14"/>
       <c r="T227" s="9"/>
       <c r="U227" s="20"/>
-      <c r="V227" s="33"/>
+      <c r="V227" s="22"/>
       <c r="W227" s="20"/>
       <c r="X227" s="9"/>
     </row>
@@ -6531,7 +6531,7 @@
       <c r="S228" s="14"/>
       <c r="T228" s="9"/>
       <c r="U228" s="20"/>
-      <c r="V228" s="33"/>
+      <c r="V228" s="22"/>
       <c r="W228" s="20"/>
       <c r="X228" s="9"/>
     </row>
@@ -6557,7 +6557,7 @@
       <c r="S229" s="14"/>
       <c r="T229" s="9"/>
       <c r="U229" s="20"/>
-      <c r="V229" s="33"/>
+      <c r="V229" s="22"/>
       <c r="W229" s="20"/>
       <c r="X229" s="9"/>
     </row>
@@ -6583,7 +6583,7 @@
       <c r="S230" s="14"/>
       <c r="T230" s="9"/>
       <c r="U230" s="20"/>
-      <c r="V230" s="33"/>
+      <c r="V230" s="22"/>
       <c r="W230" s="20"/>
       <c r="X230" s="9"/>
     </row>
@@ -6609,7 +6609,7 @@
       <c r="S231" s="14"/>
       <c r="T231" s="9"/>
       <c r="U231" s="20"/>
-      <c r="V231" s="33"/>
+      <c r="V231" s="22"/>
       <c r="W231" s="20"/>
       <c r="X231" s="9"/>
     </row>
@@ -6635,7 +6635,7 @@
       <c r="S232" s="14"/>
       <c r="T232" s="9"/>
       <c r="U232" s="20"/>
-      <c r="V232" s="33"/>
+      <c r="V232" s="22"/>
       <c r="W232" s="20"/>
       <c r="X232" s="9"/>
     </row>
@@ -6661,7 +6661,7 @@
       <c r="S233" s="14"/>
       <c r="T233" s="9"/>
       <c r="U233" s="20"/>
-      <c r="V233" s="33"/>
+      <c r="V233" s="22"/>
       <c r="W233" s="20"/>
       <c r="X233" s="9"/>
     </row>
@@ -6687,7 +6687,7 @@
       <c r="S234" s="14"/>
       <c r="T234" s="9"/>
       <c r="U234" s="20"/>
-      <c r="V234" s="33"/>
+      <c r="V234" s="22"/>
       <c r="W234" s="20"/>
       <c r="X234" s="9"/>
     </row>
@@ -6713,7 +6713,7 @@
       <c r="S235" s="14"/>
       <c r="T235" s="9"/>
       <c r="U235" s="20"/>
-      <c r="V235" s="33"/>
+      <c r="V235" s="22"/>
       <c r="W235" s="20"/>
       <c r="X235" s="9"/>
     </row>
@@ -6739,7 +6739,7 @@
       <c r="S236" s="14"/>
       <c r="T236" s="9"/>
       <c r="U236" s="20"/>
-      <c r="V236" s="33"/>
+      <c r="V236" s="22"/>
       <c r="W236" s="20"/>
       <c r="X236" s="9"/>
     </row>
@@ -6765,7 +6765,7 @@
       <c r="S237" s="14"/>
       <c r="T237" s="9"/>
       <c r="U237" s="20"/>
-      <c r="V237" s="33"/>
+      <c r="V237" s="22"/>
       <c r="W237" s="20"/>
       <c r="X237" s="9"/>
     </row>
@@ -6791,7 +6791,7 @@
       <c r="S238" s="14"/>
       <c r="T238" s="9"/>
       <c r="U238" s="20"/>
-      <c r="V238" s="33"/>
+      <c r="V238" s="22"/>
       <c r="W238" s="20"/>
       <c r="X238" s="9"/>
     </row>
@@ -6817,7 +6817,7 @@
       <c r="S239" s="14"/>
       <c r="T239" s="9"/>
       <c r="U239" s="20"/>
-      <c r="V239" s="33"/>
+      <c r="V239" s="22"/>
       <c r="W239" s="20"/>
       <c r="X239" s="9"/>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="S240" s="14"/>
       <c r="T240" s="9"/>
       <c r="U240" s="20"/>
-      <c r="V240" s="33"/>
+      <c r="V240" s="22"/>
       <c r="W240" s="20"/>
       <c r="X240" s="9"/>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="S241" s="14"/>
       <c r="T241" s="9"/>
       <c r="U241" s="20"/>
-      <c r="V241" s="33"/>
+      <c r="V241" s="22"/>
       <c r="W241" s="20"/>
       <c r="X241" s="9"/>
     </row>
@@ -6895,7 +6895,7 @@
       <c r="S242" s="14"/>
       <c r="T242" s="9"/>
       <c r="U242" s="20"/>
-      <c r="V242" s="33"/>
+      <c r="V242" s="22"/>
       <c r="W242" s="20"/>
       <c r="X242" s="9"/>
     </row>
@@ -6921,7 +6921,7 @@
       <c r="S243" s="14"/>
       <c r="T243" s="9"/>
       <c r="U243" s="20"/>
-      <c r="V243" s="33"/>
+      <c r="V243" s="22"/>
       <c r="W243" s="20"/>
       <c r="X243" s="9"/>
     </row>
@@ -6947,7 +6947,7 @@
       <c r="S244" s="14"/>
       <c r="T244" s="9"/>
       <c r="U244" s="20"/>
-      <c r="V244" s="33"/>
+      <c r="V244" s="22"/>
       <c r="W244" s="20"/>
       <c r="X244" s="9"/>
     </row>
@@ -6973,7 +6973,7 @@
       <c r="S245" s="14"/>
       <c r="T245" s="9"/>
       <c r="U245" s="20"/>
-      <c r="V245" s="33"/>
+      <c r="V245" s="22"/>
       <c r="W245" s="20"/>
       <c r="X245" s="9"/>
     </row>
@@ -6999,7 +6999,7 @@
       <c r="S246" s="14"/>
       <c r="T246" s="9"/>
       <c r="U246" s="20"/>
-      <c r="V246" s="33"/>
+      <c r="V246" s="22"/>
       <c r="W246" s="20"/>
       <c r="X246" s="9"/>
     </row>
@@ -7025,7 +7025,7 @@
       <c r="S247" s="14"/>
       <c r="T247" s="9"/>
       <c r="U247" s="20"/>
-      <c r="V247" s="33"/>
+      <c r="V247" s="22"/>
       <c r="W247" s="20"/>
       <c r="X247" s="9"/>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="S248" s="14"/>
       <c r="T248" s="9"/>
       <c r="U248" s="20"/>
-      <c r="V248" s="33"/>
+      <c r="V248" s="22"/>
       <c r="W248" s="20"/>
       <c r="X248" s="9"/>
     </row>
@@ -7077,7 +7077,7 @@
       <c r="S249" s="14"/>
       <c r="T249" s="9"/>
       <c r="U249" s="20"/>
-      <c r="V249" s="33"/>
+      <c r="V249" s="22"/>
       <c r="W249" s="20"/>
       <c r="X249" s="9"/>
     </row>
@@ -7103,7 +7103,7 @@
       <c r="S250" s="14"/>
       <c r="T250" s="9"/>
       <c r="U250" s="20"/>
-      <c r="V250" s="33"/>
+      <c r="V250" s="22"/>
       <c r="W250" s="20"/>
       <c r="X250" s="9"/>
     </row>
@@ -7129,7 +7129,7 @@
       <c r="S251" s="14"/>
       <c r="T251" s="9"/>
       <c r="U251" s="20"/>
-      <c r="V251" s="33"/>
+      <c r="V251" s="22"/>
       <c r="W251" s="20"/>
       <c r="X251" s="9"/>
     </row>
@@ -7155,7 +7155,7 @@
       <c r="S252" s="14"/>
       <c r="T252" s="9"/>
       <c r="U252" s="20"/>
-      <c r="V252" s="33"/>
+      <c r="V252" s="22"/>
       <c r="W252" s="20"/>
       <c r="X252" s="9"/>
     </row>
@@ -7181,7 +7181,7 @@
       <c r="S253" s="14"/>
       <c r="T253" s="9"/>
       <c r="U253" s="20"/>
-      <c r="V253" s="33"/>
+      <c r="V253" s="22"/>
       <c r="W253" s="20"/>
       <c r="X253" s="9"/>
     </row>
@@ -7207,7 +7207,7 @@
       <c r="S254" s="14"/>
       <c r="T254" s="9"/>
       <c r="U254" s="20"/>
-      <c r="V254" s="33"/>
+      <c r="V254" s="22"/>
       <c r="W254" s="20"/>
       <c r="X254" s="9"/>
     </row>
@@ -7233,7 +7233,7 @@
       <c r="S255" s="14"/>
       <c r="T255" s="9"/>
       <c r="U255" s="20"/>
-      <c r="V255" s="33"/>
+      <c r="V255" s="22"/>
       <c r="W255" s="20"/>
       <c r="X255" s="9"/>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="S256" s="14"/>
       <c r="T256" s="9"/>
       <c r="U256" s="20"/>
-      <c r="V256" s="33"/>
+      <c r="V256" s="22"/>
       <c r="W256" s="20"/>
       <c r="X256" s="9"/>
     </row>
@@ -7285,7 +7285,7 @@
       <c r="S257" s="14"/>
       <c r="T257" s="9"/>
       <c r="U257" s="20"/>
-      <c r="V257" s="33"/>
+      <c r="V257" s="22"/>
       <c r="W257" s="20"/>
       <c r="X257" s="9"/>
     </row>
@@ -7311,7 +7311,7 @@
       <c r="S258" s="14"/>
       <c r="T258" s="9"/>
       <c r="U258" s="20"/>
-      <c r="V258" s="33"/>
+      <c r="V258" s="22"/>
       <c r="W258" s="20"/>
       <c r="X258" s="9"/>
     </row>
@@ -7337,7 +7337,7 @@
       <c r="S259" s="14"/>
       <c r="T259" s="9"/>
       <c r="U259" s="20"/>
-      <c r="V259" s="33"/>
+      <c r="V259" s="22"/>
       <c r="W259" s="20"/>
       <c r="X259" s="9"/>
     </row>
@@ -7363,7 +7363,7 @@
       <c r="S260" s="14"/>
       <c r="T260" s="9"/>
       <c r="U260" s="20"/>
-      <c r="V260" s="33"/>
+      <c r="V260" s="22"/>
       <c r="W260" s="20"/>
       <c r="X260" s="9"/>
     </row>
@@ -7389,7 +7389,7 @@
       <c r="S261" s="14"/>
       <c r="T261" s="9"/>
       <c r="U261" s="20"/>
-      <c r="V261" s="33"/>
+      <c r="V261" s="22"/>
       <c r="W261" s="20"/>
       <c r="X261" s="9"/>
     </row>
@@ -7415,7 +7415,7 @@
       <c r="S262" s="14"/>
       <c r="T262" s="9"/>
       <c r="U262" s="20"/>
-      <c r="V262" s="33"/>
+      <c r="V262" s="22"/>
       <c r="W262" s="20"/>
       <c r="X262" s="9"/>
     </row>
@@ -7441,7 +7441,7 @@
       <c r="S263" s="14"/>
       <c r="T263" s="9"/>
       <c r="U263" s="20"/>
-      <c r="V263" s="33"/>
+      <c r="V263" s="22"/>
       <c r="W263" s="20"/>
       <c r="X263" s="9"/>
     </row>
@@ -7467,7 +7467,7 @@
       <c r="S264" s="14"/>
       <c r="T264" s="9"/>
       <c r="U264" s="20"/>
-      <c r="V264" s="33"/>
+      <c r="V264" s="22"/>
       <c r="W264" s="20"/>
       <c r="X264" s="9"/>
     </row>
@@ -7493,7 +7493,7 @@
       <c r="S265" s="14"/>
       <c r="T265" s="9"/>
       <c r="U265" s="20"/>
-      <c r="V265" s="33"/>
+      <c r="V265" s="22"/>
       <c r="W265" s="20"/>
       <c r="X265" s="9"/>
     </row>
@@ -7519,7 +7519,7 @@
       <c r="S266" s="14"/>
       <c r="T266" s="9"/>
       <c r="U266" s="20"/>
-      <c r="V266" s="33"/>
+      <c r="V266" s="22"/>
       <c r="W266" s="20"/>
       <c r="X266" s="9"/>
     </row>
@@ -7545,7 +7545,7 @@
       <c r="S267" s="14"/>
       <c r="T267" s="9"/>
       <c r="U267" s="20"/>
-      <c r="V267" s="33"/>
+      <c r="V267" s="22"/>
       <c r="W267" s="20"/>
       <c r="X267" s="9"/>
     </row>
@@ -7571,7 +7571,7 @@
       <c r="S268" s="14"/>
       <c r="T268" s="9"/>
       <c r="U268" s="20"/>
-      <c r="V268" s="33"/>
+      <c r="V268" s="22"/>
       <c r="W268" s="20"/>
       <c r="X268" s="9"/>
     </row>
@@ -7597,7 +7597,7 @@
       <c r="S269" s="14"/>
       <c r="T269" s="9"/>
       <c r="U269" s="20"/>
-      <c r="V269" s="33"/>
+      <c r="V269" s="22"/>
       <c r="W269" s="20"/>
       <c r="X269" s="9"/>
     </row>
@@ -7623,7 +7623,7 @@
       <c r="S270" s="14"/>
       <c r="T270" s="9"/>
       <c r="U270" s="20"/>
-      <c r="V270" s="33"/>
+      <c r="V270" s="22"/>
       <c r="W270" s="20"/>
       <c r="X270" s="9"/>
     </row>
@@ -7649,7 +7649,7 @@
       <c r="S271" s="14"/>
       <c r="T271" s="9"/>
       <c r="U271" s="20"/>
-      <c r="V271" s="33"/>
+      <c r="V271" s="22"/>
       <c r="W271" s="20"/>
       <c r="X271" s="9"/>
     </row>
@@ -7675,7 +7675,7 @@
       <c r="S272" s="14"/>
       <c r="T272" s="9"/>
       <c r="U272" s="20"/>
-      <c r="V272" s="33"/>
+      <c r="V272" s="22"/>
       <c r="W272" s="20"/>
       <c r="X272" s="9"/>
     </row>
@@ -7701,7 +7701,7 @@
       <c r="S273" s="14"/>
       <c r="T273" s="9"/>
       <c r="U273" s="20"/>
-      <c r="V273" s="33"/>
+      <c r="V273" s="22"/>
       <c r="W273" s="20"/>
       <c r="X273" s="9"/>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="S274" s="14"/>
       <c r="T274" s="9"/>
       <c r="U274" s="20"/>
-      <c r="V274" s="33"/>
+      <c r="V274" s="22"/>
       <c r="W274" s="20"/>
       <c r="X274" s="9"/>
     </row>
@@ -7753,7 +7753,7 @@
       <c r="S275" s="14"/>
       <c r="T275" s="9"/>
       <c r="U275" s="20"/>
-      <c r="V275" s="33"/>
+      <c r="V275" s="22"/>
       <c r="W275" s="20"/>
       <c r="X275" s="9"/>
     </row>
@@ -7779,7 +7779,7 @@
       <c r="S276" s="14"/>
       <c r="T276" s="9"/>
       <c r="U276" s="20"/>
-      <c r="V276" s="33"/>
+      <c r="V276" s="22"/>
       <c r="W276" s="20"/>
       <c r="X276" s="9"/>
     </row>
@@ -7805,7 +7805,7 @@
       <c r="S277" s="14"/>
       <c r="T277" s="9"/>
       <c r="U277" s="20"/>
-      <c r="V277" s="33"/>
+      <c r="V277" s="22"/>
       <c r="W277" s="20"/>
       <c r="X277" s="9"/>
     </row>
@@ -7831,7 +7831,7 @@
       <c r="S278" s="14"/>
       <c r="T278" s="9"/>
       <c r="U278" s="20"/>
-      <c r="V278" s="33"/>
+      <c r="V278" s="22"/>
       <c r="W278" s="20"/>
       <c r="X278" s="9"/>
     </row>
@@ -7857,7 +7857,7 @@
       <c r="S279" s="14"/>
       <c r="T279" s="9"/>
       <c r="U279" s="20"/>
-      <c r="V279" s="33"/>
+      <c r="V279" s="22"/>
       <c r="W279" s="20"/>
       <c r="X279" s="9"/>
     </row>
@@ -7883,7 +7883,7 @@
       <c r="S280" s="14"/>
       <c r="T280" s="9"/>
       <c r="U280" s="20"/>
-      <c r="V280" s="33"/>
+      <c r="V280" s="22"/>
       <c r="W280" s="20"/>
       <c r="X280" s="9"/>
     </row>
@@ -7909,7 +7909,7 @@
       <c r="S281" s="14"/>
       <c r="T281" s="9"/>
       <c r="U281" s="20"/>
-      <c r="V281" s="33"/>
+      <c r="V281" s="22"/>
       <c r="W281" s="20"/>
       <c r="X281" s="9"/>
     </row>
@@ -7935,7 +7935,7 @@
       <c r="S282" s="14"/>
       <c r="T282" s="9"/>
       <c r="U282" s="20"/>
-      <c r="V282" s="33"/>
+      <c r="V282" s="22"/>
       <c r="W282" s="20"/>
       <c r="X282" s="9"/>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="S283" s="14"/>
       <c r="T283" s="9"/>
       <c r="U283" s="20"/>
-      <c r="V283" s="33"/>
+      <c r="V283" s="22"/>
       <c r="W283" s="20"/>
       <c r="X283" s="9"/>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="S284" s="14"/>
       <c r="T284" s="9"/>
       <c r="U284" s="20"/>
-      <c r="V284" s="33"/>
+      <c r="V284" s="22"/>
       <c r="W284" s="20"/>
       <c r="X284" s="9"/>
     </row>
@@ -8013,7 +8013,7 @@
       <c r="S285" s="14"/>
       <c r="T285" s="9"/>
       <c r="U285" s="20"/>
-      <c r="V285" s="33"/>
+      <c r="V285" s="22"/>
       <c r="W285" s="20"/>
       <c r="X285" s="9"/>
     </row>
@@ -8039,7 +8039,7 @@
       <c r="S286" s="14"/>
       <c r="T286" s="9"/>
       <c r="U286" s="20"/>
-      <c r="V286" s="33"/>
+      <c r="V286" s="22"/>
       <c r="W286" s="20"/>
       <c r="X286" s="9"/>
     </row>
@@ -8065,7 +8065,7 @@
       <c r="S287" s="14"/>
       <c r="T287" s="9"/>
       <c r="U287" s="20"/>
-      <c r="V287" s="33"/>
+      <c r="V287" s="22"/>
       <c r="W287" s="20"/>
       <c r="X287" s="9"/>
     </row>
@@ -8091,7 +8091,7 @@
       <c r="S288" s="14"/>
       <c r="T288" s="9"/>
       <c r="U288" s="20"/>
-      <c r="V288" s="33"/>
+      <c r="V288" s="22"/>
       <c r="W288" s="20"/>
       <c r="X288" s="9"/>
     </row>
@@ -8117,7 +8117,7 @@
       <c r="S289" s="14"/>
       <c r="T289" s="9"/>
       <c r="U289" s="20"/>
-      <c r="V289" s="33"/>
+      <c r="V289" s="22"/>
       <c r="W289" s="20"/>
       <c r="X289" s="9"/>
     </row>
@@ -8143,7 +8143,7 @@
       <c r="S290" s="14"/>
       <c r="T290" s="9"/>
       <c r="U290" s="20"/>
-      <c r="V290" s="33"/>
+      <c r="V290" s="22"/>
       <c r="W290" s="20"/>
       <c r="X290" s="9"/>
     </row>
@@ -8169,7 +8169,7 @@
       <c r="S291" s="14"/>
       <c r="T291" s="9"/>
       <c r="U291" s="20"/>
-      <c r="V291" s="33"/>
+      <c r="V291" s="22"/>
       <c r="W291" s="20"/>
       <c r="X291" s="9"/>
     </row>
@@ -8195,7 +8195,7 @@
       <c r="S292" s="14"/>
       <c r="T292" s="9"/>
       <c r="U292" s="20"/>
-      <c r="V292" s="33"/>
+      <c r="V292" s="22"/>
       <c r="W292" s="20"/>
       <c r="X292" s="9"/>
     </row>
@@ -8221,7 +8221,7 @@
       <c r="S293" s="14"/>
       <c r="T293" s="9"/>
       <c r="U293" s="20"/>
-      <c r="V293" s="33"/>
+      <c r="V293" s="22"/>
       <c r="W293" s="20"/>
       <c r="X293" s="9"/>
     </row>
@@ -8247,7 +8247,7 @@
       <c r="S294" s="14"/>
       <c r="T294" s="9"/>
       <c r="U294" s="20"/>
-      <c r="V294" s="33"/>
+      <c r="V294" s="22"/>
       <c r="W294" s="20"/>
       <c r="X294" s="9"/>
     </row>
@@ -8273,7 +8273,7 @@
       <c r="S295" s="14"/>
       <c r="T295" s="9"/>
       <c r="U295" s="20"/>
-      <c r="V295" s="33"/>
+      <c r="V295" s="22"/>
       <c r="W295" s="20"/>
       <c r="X295" s="9"/>
     </row>
@@ -8299,7 +8299,7 @@
       <c r="S296" s="14"/>
       <c r="T296" s="9"/>
       <c r="U296" s="20"/>
-      <c r="V296" s="33"/>
+      <c r="V296" s="22"/>
       <c r="W296" s="20"/>
       <c r="X296" s="9"/>
     </row>
@@ -8325,7 +8325,7 @@
       <c r="S297" s="14"/>
       <c r="T297" s="9"/>
       <c r="U297" s="20"/>
-      <c r="V297" s="33"/>
+      <c r="V297" s="22"/>
       <c r="W297" s="20"/>
       <c r="X297" s="9"/>
     </row>
@@ -8351,7 +8351,7 @@
       <c r="S298" s="14"/>
       <c r="T298" s="9"/>
       <c r="U298" s="20"/>
-      <c r="V298" s="33"/>
+      <c r="V298" s="22"/>
       <c r="W298" s="20"/>
       <c r="X298" s="9"/>
     </row>
@@ -8377,7 +8377,7 @@
       <c r="S299" s="14"/>
       <c r="T299" s="9"/>
       <c r="U299" s="20"/>
-      <c r="V299" s="33"/>
+      <c r="V299" s="22"/>
       <c r="W299" s="20"/>
       <c r="X299" s="9"/>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="S300" s="14"/>
       <c r="T300" s="9"/>
       <c r="U300" s="20"/>
-      <c r="V300" s="33"/>
+      <c r="V300" s="22"/>
       <c r="W300" s="20"/>
       <c r="X300" s="9"/>
     </row>
@@ -8429,7 +8429,7 @@
       <c r="S301" s="14"/>
       <c r="T301" s="9"/>
       <c r="U301" s="20"/>
-      <c r="V301" s="33"/>
+      <c r="V301" s="22"/>
       <c r="W301" s="20"/>
       <c r="X301" s="9"/>
     </row>
@@ -8455,7 +8455,7 @@
       <c r="S302" s="14"/>
       <c r="T302" s="9"/>
       <c r="U302" s="20"/>
-      <c r="V302" s="33"/>
+      <c r="V302" s="22"/>
       <c r="W302" s="20"/>
       <c r="X302" s="9"/>
     </row>
@@ -8481,7 +8481,7 @@
       <c r="S303" s="14"/>
       <c r="T303" s="9"/>
       <c r="U303" s="20"/>
-      <c r="V303" s="33"/>
+      <c r="V303" s="22"/>
       <c r="W303" s="20"/>
       <c r="X303" s="9"/>
     </row>
@@ -8507,7 +8507,7 @@
       <c r="S304" s="14"/>
       <c r="T304" s="9"/>
       <c r="U304" s="20"/>
-      <c r="V304" s="33"/>
+      <c r="V304" s="22"/>
       <c r="W304" s="20"/>
       <c r="X304" s="9"/>
     </row>
@@ -8533,7 +8533,7 @@
       <c r="S305" s="14"/>
       <c r="T305" s="9"/>
       <c r="U305" s="20"/>
-      <c r="V305" s="33"/>
+      <c r="V305" s="22"/>
       <c r="W305" s="20"/>
       <c r="X305" s="9"/>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="S306" s="14"/>
       <c r="T306" s="9"/>
       <c r="U306" s="20"/>
-      <c r="V306" s="33"/>
+      <c r="V306" s="22"/>
       <c r="W306" s="20"/>
       <c r="X306" s="9"/>
     </row>
@@ -8585,7 +8585,7 @@
       <c r="S307" s="14"/>
       <c r="T307" s="9"/>
       <c r="U307" s="20"/>
-      <c r="V307" s="33"/>
+      <c r="V307" s="22"/>
       <c r="W307" s="20"/>
       <c r="X307" s="9"/>
     </row>
@@ -8611,7 +8611,7 @@
       <c r="S308" s="14"/>
       <c r="T308" s="9"/>
       <c r="U308" s="20"/>
-      <c r="V308" s="33"/>
+      <c r="V308" s="22"/>
       <c r="W308" s="20"/>
       <c r="X308" s="9"/>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="S309" s="14"/>
       <c r="T309" s="9"/>
       <c r="U309" s="20"/>
-      <c r="V309" s="33"/>
+      <c r="V309" s="22"/>
       <c r="W309" s="20"/>
       <c r="X309" s="9"/>
     </row>
@@ -8663,7 +8663,7 @@
       <c r="S310" s="14"/>
       <c r="T310" s="9"/>
       <c r="U310" s="20"/>
-      <c r="V310" s="33"/>
+      <c r="V310" s="22"/>
       <c r="W310" s="20"/>
       <c r="X310" s="9"/>
     </row>
@@ -8689,7 +8689,7 @@
       <c r="S311" s="14"/>
       <c r="T311" s="9"/>
       <c r="U311" s="20"/>
-      <c r="V311" s="33"/>
+      <c r="V311" s="22"/>
       <c r="W311" s="20"/>
       <c r="X311" s="9"/>
     </row>
@@ -8715,7 +8715,7 @@
       <c r="S312" s="14"/>
       <c r="T312" s="9"/>
       <c r="U312" s="20"/>
-      <c r="V312" s="33"/>
+      <c r="V312" s="22"/>
       <c r="W312" s="20"/>
       <c r="X312" s="9"/>
     </row>
@@ -8741,7 +8741,7 @@
       <c r="S313" s="14"/>
       <c r="T313" s="9"/>
       <c r="U313" s="20"/>
-      <c r="V313" s="33"/>
+      <c r="V313" s="22"/>
       <c r="W313" s="20"/>
       <c r="X313" s="9"/>
     </row>
@@ -8767,7 +8767,7 @@
       <c r="S314" s="14"/>
       <c r="T314" s="9"/>
       <c r="U314" s="20"/>
-      <c r="V314" s="33"/>
+      <c r="V314" s="22"/>
       <c r="W314" s="20"/>
       <c r="X314" s="9"/>
     </row>
@@ -8793,7 +8793,7 @@
       <c r="S315" s="14"/>
       <c r="T315" s="9"/>
       <c r="U315" s="20"/>
-      <c r="V315" s="33"/>
+      <c r="V315" s="22"/>
       <c r="W315" s="20"/>
       <c r="X315" s="9"/>
     </row>
@@ -8819,7 +8819,7 @@
       <c r="S316" s="14"/>
       <c r="T316" s="9"/>
       <c r="U316" s="20"/>
-      <c r="V316" s="33"/>
+      <c r="V316" s="22"/>
       <c r="W316" s="20"/>
       <c r="X316" s="9"/>
     </row>
@@ -8845,7 +8845,7 @@
       <c r="S317" s="14"/>
       <c r="T317" s="9"/>
       <c r="U317" s="20"/>
-      <c r="V317" s="33"/>
+      <c r="V317" s="22"/>
       <c r="W317" s="20"/>
       <c r="X317" s="9"/>
     </row>
@@ -8871,7 +8871,7 @@
       <c r="S318" s="14"/>
       <c r="T318" s="9"/>
       <c r="U318" s="20"/>
-      <c r="V318" s="33"/>
+      <c r="V318" s="22"/>
       <c r="W318" s="20"/>
       <c r="X318" s="9"/>
     </row>
@@ -8897,7 +8897,7 @@
       <c r="S319" s="14"/>
       <c r="T319" s="9"/>
       <c r="U319" s="20"/>
-      <c r="V319" s="33"/>
+      <c r="V319" s="22"/>
       <c r="W319" s="20"/>
       <c r="X319" s="9"/>
     </row>
@@ -8923,7 +8923,7 @@
       <c r="S320" s="14"/>
       <c r="T320" s="9"/>
       <c r="U320" s="20"/>
-      <c r="V320" s="33"/>
+      <c r="V320" s="22"/>
       <c r="W320" s="20"/>
       <c r="X320" s="9"/>
     </row>
@@ -8949,7 +8949,7 @@
       <c r="S321" s="14"/>
       <c r="T321" s="9"/>
       <c r="U321" s="20"/>
-      <c r="V321" s="33"/>
+      <c r="V321" s="22"/>
       <c r="W321" s="20"/>
       <c r="X321" s="9"/>
     </row>
@@ -8975,7 +8975,7 @@
       <c r="S322" s="14"/>
       <c r="T322" s="9"/>
       <c r="U322" s="20"/>
-      <c r="V322" s="33"/>
+      <c r="V322" s="22"/>
       <c r="W322" s="20"/>
       <c r="X322" s="9"/>
     </row>
@@ -9001,7 +9001,7 @@
       <c r="S323" s="14"/>
       <c r="T323" s="9"/>
       <c r="U323" s="20"/>
-      <c r="V323" s="33"/>
+      <c r="V323" s="22"/>
       <c r="W323" s="20"/>
       <c r="X323" s="9"/>
     </row>
@@ -9027,7 +9027,7 @@
       <c r="S324" s="14"/>
       <c r="T324" s="9"/>
       <c r="U324" s="20"/>
-      <c r="V324" s="33"/>
+      <c r="V324" s="22"/>
       <c r="W324" s="20"/>
       <c r="X324" s="9"/>
     </row>
@@ -9053,7 +9053,7 @@
       <c r="S325" s="14"/>
       <c r="T325" s="9"/>
       <c r="U325" s="20"/>
-      <c r="V325" s="33"/>
+      <c r="V325" s="22"/>
       <c r="W325" s="20"/>
       <c r="X325" s="9"/>
     </row>
@@ -9079,7 +9079,7 @@
       <c r="S326" s="14"/>
       <c r="T326" s="9"/>
       <c r="U326" s="20"/>
-      <c r="V326" s="33"/>
+      <c r="V326" s="22"/>
       <c r="W326" s="20"/>
       <c r="X326" s="9"/>
     </row>
@@ -9105,7 +9105,7 @@
       <c r="S327" s="14"/>
       <c r="T327" s="9"/>
       <c r="U327" s="20"/>
-      <c r="V327" s="33"/>
+      <c r="V327" s="22"/>
       <c r="W327" s="20"/>
       <c r="X327" s="9"/>
     </row>
@@ -9131,7 +9131,7 @@
       <c r="S328" s="14"/>
       <c r="T328" s="9"/>
       <c r="U328" s="20"/>
-      <c r="V328" s="33"/>
+      <c r="V328" s="22"/>
       <c r="W328" s="20"/>
       <c r="X328" s="9"/>
     </row>
@@ -9157,7 +9157,7 @@
       <c r="S329" s="14"/>
       <c r="T329" s="9"/>
       <c r="U329" s="20"/>
-      <c r="V329" s="33"/>
+      <c r="V329" s="22"/>
       <c r="W329" s="20"/>
       <c r="X329" s="9"/>
     </row>
@@ -9183,7 +9183,7 @@
       <c r="S330" s="14"/>
       <c r="T330" s="9"/>
       <c r="U330" s="20"/>
-      <c r="V330" s="33"/>
+      <c r="V330" s="22"/>
       <c r="W330" s="20"/>
       <c r="X330" s="9"/>
     </row>
@@ -9209,7 +9209,7 @@
       <c r="S331" s="14"/>
       <c r="T331" s="9"/>
       <c r="U331" s="20"/>
-      <c r="V331" s="33"/>
+      <c r="V331" s="22"/>
       <c r="W331" s="20"/>
       <c r="X331" s="9"/>
     </row>
@@ -9235,7 +9235,7 @@
       <c r="S332" s="14"/>
       <c r="T332" s="9"/>
       <c r="U332" s="20"/>
-      <c r="V332" s="33"/>
+      <c r="V332" s="22"/>
       <c r="W332" s="20"/>
       <c r="X332" s="9"/>
     </row>
@@ -9261,7 +9261,7 @@
       <c r="S333" s="14"/>
       <c r="T333" s="9"/>
       <c r="U333" s="20"/>
-      <c r="V333" s="33"/>
+      <c r="V333" s="22"/>
       <c r="W333" s="20"/>
       <c r="X333" s="9"/>
     </row>
@@ -9287,7 +9287,7 @@
       <c r="S334" s="14"/>
       <c r="T334" s="9"/>
       <c r="U334" s="20"/>
-      <c r="V334" s="33"/>
+      <c r="V334" s="22"/>
       <c r="W334" s="20"/>
       <c r="X334" s="9"/>
     </row>
@@ -9313,7 +9313,7 @@
       <c r="S335" s="14"/>
       <c r="T335" s="9"/>
       <c r="U335" s="20"/>
-      <c r="V335" s="33"/>
+      <c r="V335" s="22"/>
       <c r="W335" s="20"/>
       <c r="X335" s="9"/>
     </row>
@@ -9339,7 +9339,7 @@
       <c r="S336" s="14"/>
       <c r="T336" s="9"/>
       <c r="U336" s="20"/>
-      <c r="V336" s="33"/>
+      <c r="V336" s="22"/>
       <c r="W336" s="20"/>
       <c r="X336" s="9"/>
     </row>
@@ -9365,7 +9365,7 @@
       <c r="S337" s="14"/>
       <c r="T337" s="9"/>
       <c r="U337" s="20"/>
-      <c r="V337" s="33"/>
+      <c r="V337" s="22"/>
       <c r="W337" s="20"/>
       <c r="X337" s="9"/>
     </row>
@@ -9391,7 +9391,7 @@
       <c r="S338" s="14"/>
       <c r="T338" s="9"/>
       <c r="U338" s="20"/>
-      <c r="V338" s="33"/>
+      <c r="V338" s="22"/>
       <c r="W338" s="20"/>
       <c r="X338" s="9"/>
     </row>
@@ -9417,7 +9417,7 @@
       <c r="S339" s="14"/>
       <c r="T339" s="9"/>
       <c r="U339" s="20"/>
-      <c r="V339" s="33"/>
+      <c r="V339" s="22"/>
       <c r="W339" s="20"/>
       <c r="X339" s="9"/>
     </row>
@@ -9443,7 +9443,7 @@
       <c r="S340" s="14"/>
       <c r="T340" s="9"/>
       <c r="U340" s="20"/>
-      <c r="V340" s="33"/>
+      <c r="V340" s="22"/>
       <c r="W340" s="20"/>
       <c r="X340" s="9"/>
     </row>
@@ -9469,7 +9469,7 @@
       <c r="S341" s="14"/>
       <c r="T341" s="9"/>
       <c r="U341" s="20"/>
-      <c r="V341" s="33"/>
+      <c r="V341" s="22"/>
       <c r="W341" s="20"/>
       <c r="X341" s="9"/>
     </row>
@@ -9495,7 +9495,7 @@
       <c r="S342" s="14"/>
       <c r="T342" s="9"/>
       <c r="U342" s="20"/>
-      <c r="V342" s="33"/>
+      <c r="V342" s="22"/>
       <c r="W342" s="20"/>
       <c r="X342" s="9"/>
     </row>
@@ -9521,7 +9521,7 @@
       <c r="S343" s="14"/>
       <c r="T343" s="9"/>
       <c r="U343" s="20"/>
-      <c r="V343" s="33"/>
+      <c r="V343" s="22"/>
       <c r="W343" s="20"/>
       <c r="X343" s="9"/>
     </row>
@@ -9547,7 +9547,7 @@
       <c r="S344" s="14"/>
       <c r="T344" s="9"/>
       <c r="U344" s="20"/>
-      <c r="V344" s="33"/>
+      <c r="V344" s="22"/>
       <c r="W344" s="20"/>
       <c r="X344" s="9"/>
     </row>
@@ -9573,7 +9573,7 @@
       <c r="S345" s="14"/>
       <c r="T345" s="9"/>
       <c r="U345" s="20"/>
-      <c r="V345" s="33"/>
+      <c r="V345" s="22"/>
       <c r="W345" s="20"/>
       <c r="X345" s="9"/>
     </row>
@@ -9599,7 +9599,7 @@
       <c r="S346" s="14"/>
       <c r="T346" s="9"/>
       <c r="U346" s="20"/>
-      <c r="V346" s="33"/>
+      <c r="V346" s="22"/>
       <c r="W346" s="20"/>
       <c r="X346" s="9"/>
     </row>
@@ -9625,7 +9625,7 @@
       <c r="S347" s="14"/>
       <c r="T347" s="9"/>
       <c r="U347" s="20"/>
-      <c r="V347" s="33"/>
+      <c r="V347" s="22"/>
       <c r="W347" s="20"/>
       <c r="X347" s="9"/>
     </row>
@@ -9651,7 +9651,7 @@
       <c r="S348" s="14"/>
       <c r="T348" s="9"/>
       <c r="U348" s="20"/>
-      <c r="V348" s="33"/>
+      <c r="V348" s="22"/>
       <c r="W348" s="20"/>
       <c r="X348" s="9"/>
     </row>
@@ -9677,7 +9677,7 @@
       <c r="S349" s="14"/>
       <c r="T349" s="9"/>
       <c r="U349" s="20"/>
-      <c r="V349" s="33"/>
+      <c r="V349" s="22"/>
       <c r="W349" s="20"/>
       <c r="X349" s="9"/>
     </row>
@@ -9703,7 +9703,7 @@
       <c r="S350" s="14"/>
       <c r="T350" s="9"/>
       <c r="U350" s="20"/>
-      <c r="V350" s="33"/>
+      <c r="V350" s="22"/>
       <c r="W350" s="20"/>
       <c r="X350" s="9"/>
     </row>
@@ -9729,7 +9729,7 @@
       <c r="S351" s="14"/>
       <c r="T351" s="9"/>
       <c r="U351" s="20"/>
-      <c r="V351" s="33"/>
+      <c r="V351" s="22"/>
       <c r="W351" s="20"/>
       <c r="X351" s="9"/>
     </row>
@@ -9755,7 +9755,7 @@
       <c r="S352" s="14"/>
       <c r="T352" s="9"/>
       <c r="U352" s="20"/>
-      <c r="V352" s="33"/>
+      <c r="V352" s="22"/>
       <c r="W352" s="20"/>
       <c r="X352" s="9"/>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="S353" s="14"/>
       <c r="T353" s="9"/>
       <c r="U353" s="20"/>
-      <c r="V353" s="33"/>
+      <c r="V353" s="22"/>
       <c r="W353" s="20"/>
       <c r="X353" s="9"/>
     </row>
@@ -9807,7 +9807,7 @@
       <c r="S354" s="14"/>
       <c r="T354" s="9"/>
       <c r="U354" s="20"/>
-      <c r="V354" s="33"/>
+      <c r="V354" s="22"/>
       <c r="W354" s="20"/>
       <c r="X354" s="9"/>
     </row>
@@ -9833,7 +9833,7 @@
       <c r="S355" s="14"/>
       <c r="T355" s="9"/>
       <c r="U355" s="20"/>
-      <c r="V355" s="33"/>
+      <c r="V355" s="22"/>
       <c r="W355" s="20"/>
       <c r="X355" s="9"/>
     </row>
@@ -9859,7 +9859,7 @@
       <c r="S356" s="14"/>
       <c r="T356" s="9"/>
       <c r="U356" s="20"/>
-      <c r="V356" s="33"/>
+      <c r="V356" s="22"/>
       <c r="W356" s="20"/>
       <c r="X356" s="9"/>
     </row>
@@ -9885,7 +9885,7 @@
       <c r="S357" s="14"/>
       <c r="T357" s="9"/>
       <c r="U357" s="20"/>
-      <c r="V357" s="33"/>
+      <c r="V357" s="22"/>
       <c r="W357" s="20"/>
       <c r="X357" s="9"/>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="S358" s="14"/>
       <c r="T358" s="9"/>
       <c r="U358" s="20"/>
-      <c r="V358" s="33"/>
+      <c r="V358" s="22"/>
       <c r="W358" s="20"/>
       <c r="X358" s="9"/>
     </row>
@@ -9937,7 +9937,7 @@
       <c r="S359" s="14"/>
       <c r="T359" s="9"/>
       <c r="U359" s="20"/>
-      <c r="V359" s="33"/>
+      <c r="V359" s="22"/>
       <c r="W359" s="20"/>
       <c r="X359" s="9"/>
     </row>
@@ -9963,7 +9963,7 @@
       <c r="S360" s="14"/>
       <c r="T360" s="9"/>
       <c r="U360" s="20"/>
-      <c r="V360" s="33"/>
+      <c r="V360" s="22"/>
       <c r="W360" s="20"/>
       <c r="X360" s="9"/>
     </row>
@@ -9989,7 +9989,7 @@
       <c r="S361" s="14"/>
       <c r="T361" s="9"/>
       <c r="U361" s="20"/>
-      <c r="V361" s="33"/>
+      <c r="V361" s="22"/>
       <c r="W361" s="20"/>
       <c r="X361" s="9"/>
     </row>
@@ -10015,7 +10015,7 @@
       <c r="S362" s="14"/>
       <c r="T362" s="9"/>
       <c r="U362" s="20"/>
-      <c r="V362" s="33"/>
+      <c r="V362" s="22"/>
       <c r="W362" s="20"/>
       <c r="X362" s="9"/>
     </row>
@@ -10041,7 +10041,7 @@
       <c r="S363" s="14"/>
       <c r="T363" s="9"/>
       <c r="U363" s="20"/>
-      <c r="V363" s="33"/>
+      <c r="V363" s="22"/>
       <c r="W363" s="20"/>
       <c r="X363" s="9"/>
     </row>
@@ -10067,7 +10067,7 @@
       <c r="S364" s="14"/>
       <c r="T364" s="9"/>
       <c r="U364" s="20"/>
-      <c r="V364" s="33"/>
+      <c r="V364" s="22"/>
       <c r="W364" s="20"/>
       <c r="X364" s="9"/>
     </row>
@@ -10093,7 +10093,7 @@
       <c r="S365" s="14"/>
       <c r="T365" s="9"/>
       <c r="U365" s="20"/>
-      <c r="V365" s="33"/>
+      <c r="V365" s="22"/>
       <c r="W365" s="20"/>
       <c r="X365" s="9"/>
     </row>
@@ -10119,7 +10119,7 @@
       <c r="S366" s="14"/>
       <c r="T366" s="9"/>
       <c r="U366" s="20"/>
-      <c r="V366" s="33"/>
+      <c r="V366" s="22"/>
       <c r="W366" s="20"/>
       <c r="X366" s="9"/>
     </row>
@@ -10145,7 +10145,7 @@
       <c r="S367" s="14"/>
       <c r="T367" s="9"/>
       <c r="U367" s="20"/>
-      <c r="V367" s="33"/>
+      <c r="V367" s="22"/>
       <c r="W367" s="20"/>
       <c r="X367" s="9"/>
     </row>
@@ -10171,7 +10171,7 @@
       <c r="S368" s="14"/>
       <c r="T368" s="9"/>
       <c r="U368" s="20"/>
-      <c r="V368" s="33"/>
+      <c r="V368" s="22"/>
       <c r="W368" s="20"/>
       <c r="X368" s="9"/>
     </row>
@@ -10197,7 +10197,7 @@
       <c r="S369" s="14"/>
       <c r="T369" s="9"/>
       <c r="U369" s="20"/>
-      <c r="V369" s="33"/>
+      <c r="V369" s="22"/>
       <c r="W369" s="20"/>
       <c r="X369" s="9"/>
     </row>
@@ -10223,7 +10223,7 @@
       <c r="S370" s="14"/>
       <c r="T370" s="9"/>
       <c r="U370" s="20"/>
-      <c r="V370" s="33"/>
+      <c r="V370" s="22"/>
       <c r="W370" s="20"/>
       <c r="X370" s="9"/>
     </row>
@@ -10249,7 +10249,7 @@
       <c r="S371" s="14"/>
       <c r="T371" s="9"/>
       <c r="U371" s="20"/>
-      <c r="V371" s="33"/>
+      <c r="V371" s="22"/>
       <c r="W371" s="20"/>
       <c r="X371" s="9"/>
     </row>
@@ -10275,7 +10275,7 @@
       <c r="S372" s="14"/>
       <c r="T372" s="9"/>
       <c r="U372" s="20"/>
-      <c r="V372" s="33"/>
+      <c r="V372" s="22"/>
       <c r="W372" s="20"/>
       <c r="X372" s="9"/>
     </row>
@@ -10301,7 +10301,7 @@
       <c r="S373" s="14"/>
       <c r="T373" s="9"/>
       <c r="U373" s="20"/>
-      <c r="V373" s="33"/>
+      <c r="V373" s="22"/>
       <c r="W373" s="20"/>
       <c r="X373" s="9"/>
     </row>
@@ -10327,7 +10327,7 @@
       <c r="S374" s="14"/>
       <c r="T374" s="9"/>
       <c r="U374" s="20"/>
-      <c r="V374" s="33"/>
+      <c r="V374" s="22"/>
       <c r="W374" s="20"/>
       <c r="X374" s="9"/>
     </row>
@@ -10353,7 +10353,7 @@
       <c r="S375" s="14"/>
       <c r="T375" s="9"/>
       <c r="U375" s="20"/>
-      <c r="V375" s="33"/>
+      <c r="V375" s="22"/>
       <c r="W375" s="20"/>
       <c r="X375" s="9"/>
     </row>
@@ -10379,7 +10379,7 @@
       <c r="S376" s="14"/>
       <c r="T376" s="9"/>
       <c r="U376" s="20"/>
-      <c r="V376" s="33"/>
+      <c r="V376" s="22"/>
       <c r="W376" s="20"/>
       <c r="X376" s="9"/>
     </row>
@@ -10405,7 +10405,7 @@
       <c r="S377" s="14"/>
       <c r="T377" s="9"/>
       <c r="U377" s="20"/>
-      <c r="V377" s="33"/>
+      <c r="V377" s="22"/>
       <c r="W377" s="20"/>
       <c r="X377" s="9"/>
     </row>
@@ -10431,7 +10431,7 @@
       <c r="S378" s="14"/>
       <c r="T378" s="9"/>
       <c r="U378" s="20"/>
-      <c r="V378" s="33"/>
+      <c r="V378" s="22"/>
       <c r="W378" s="20"/>
       <c r="X378" s="9"/>
     </row>
@@ -10457,7 +10457,7 @@
       <c r="S379" s="14"/>
       <c r="T379" s="9"/>
       <c r="U379" s="20"/>
-      <c r="V379" s="33"/>
+      <c r="V379" s="22"/>
       <c r="W379" s="20"/>
       <c r="X379" s="9"/>
     </row>
@@ -10483,7 +10483,7 @@
       <c r="S380" s="14"/>
       <c r="T380" s="9"/>
       <c r="U380" s="20"/>
-      <c r="V380" s="33"/>
+      <c r="V380" s="22"/>
       <c r="W380" s="20"/>
       <c r="X380" s="9"/>
     </row>
@@ -10509,7 +10509,7 @@
       <c r="S381" s="14"/>
       <c r="T381" s="9"/>
       <c r="U381" s="20"/>
-      <c r="V381" s="33"/>
+      <c r="V381" s="22"/>
       <c r="W381" s="20"/>
       <c r="X381" s="9"/>
     </row>
@@ -10535,7 +10535,7 @@
       <c r="S382" s="14"/>
       <c r="T382" s="9"/>
       <c r="U382" s="20"/>
-      <c r="V382" s="33"/>
+      <c r="V382" s="22"/>
       <c r="W382" s="20"/>
       <c r="X382" s="9"/>
     </row>
@@ -10561,7 +10561,7 @@
       <c r="S383" s="14"/>
       <c r="T383" s="9"/>
       <c r="U383" s="20"/>
-      <c r="V383" s="33"/>
+      <c r="V383" s="22"/>
       <c r="W383" s="20"/>
       <c r="X383" s="9"/>
     </row>
@@ -10587,7 +10587,7 @@
       <c r="S384" s="14"/>
       <c r="T384" s="9"/>
       <c r="U384" s="20"/>
-      <c r="V384" s="33"/>
+      <c r="V384" s="22"/>
       <c r="W384" s="20"/>
       <c r="X384" s="9"/>
     </row>
@@ -10613,7 +10613,7 @@
       <c r="S385" s="14"/>
       <c r="T385" s="9"/>
       <c r="U385" s="20"/>
-      <c r="V385" s="33"/>
+      <c r="V385" s="22"/>
       <c r="W385" s="20"/>
       <c r="X385" s="9"/>
     </row>
@@ -10639,7 +10639,7 @@
       <c r="S386" s="14"/>
       <c r="T386" s="9"/>
       <c r="U386" s="20"/>
-      <c r="V386" s="33"/>
+      <c r="V386" s="22"/>
       <c r="W386" s="20"/>
       <c r="X386" s="9"/>
     </row>
@@ -10665,7 +10665,7 @@
       <c r="S387" s="14"/>
       <c r="T387" s="9"/>
       <c r="U387" s="20"/>
-      <c r="V387" s="33"/>
+      <c r="V387" s="22"/>
       <c r="W387" s="20"/>
       <c r="X387" s="9"/>
     </row>
@@ -10691,7 +10691,7 @@
       <c r="S388" s="14"/>
       <c r="T388" s="9"/>
       <c r="U388" s="20"/>
-      <c r="V388" s="33"/>
+      <c r="V388" s="22"/>
       <c r="W388" s="20"/>
       <c r="X388" s="9"/>
     </row>
@@ -10717,7 +10717,7 @@
       <c r="S389" s="14"/>
       <c r="T389" s="9"/>
       <c r="U389" s="20"/>
-      <c r="V389" s="33"/>
+      <c r="V389" s="22"/>
       <c r="W389" s="20"/>
       <c r="X389" s="9"/>
     </row>
@@ -10743,7 +10743,7 @@
       <c r="S390" s="14"/>
       <c r="T390" s="9"/>
       <c r="U390" s="20"/>
-      <c r="V390" s="33"/>
+      <c r="V390" s="22"/>
       <c r="W390" s="20"/>
       <c r="X390" s="9"/>
     </row>
@@ -10769,7 +10769,7 @@
       <c r="S391" s="14"/>
       <c r="T391" s="9"/>
       <c r="U391" s="20"/>
-      <c r="V391" s="33"/>
+      <c r="V391" s="22"/>
       <c r="W391" s="20"/>
       <c r="X391" s="9"/>
     </row>
@@ -10795,7 +10795,7 @@
       <c r="S392" s="14"/>
       <c r="T392" s="9"/>
       <c r="U392" s="20"/>
-      <c r="V392" s="33"/>
+      <c r="V392" s="22"/>
       <c r="W392" s="20"/>
       <c r="X392" s="9"/>
     </row>
@@ -10821,7 +10821,7 @@
       <c r="S393" s="14"/>
       <c r="T393" s="9"/>
       <c r="U393" s="20"/>
-      <c r="V393" s="33"/>
+      <c r="V393" s="22"/>
       <c r="W393" s="20"/>
       <c r="X393" s="9"/>
     </row>
@@ -10847,7 +10847,7 @@
       <c r="S394" s="14"/>
       <c r="T394" s="9"/>
       <c r="U394" s="20"/>
-      <c r="V394" s="33"/>
+      <c r="V394" s="22"/>
       <c r="W394" s="20"/>
       <c r="X394" s="9"/>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="S395" s="14"/>
       <c r="T395" s="9"/>
       <c r="U395" s="20"/>
-      <c r="V395" s="33"/>
+      <c r="V395" s="22"/>
       <c r="W395" s="20"/>
       <c r="X395" s="9"/>
     </row>
@@ -10899,7 +10899,7 @@
       <c r="S396" s="14"/>
       <c r="T396" s="9"/>
       <c r="U396" s="20"/>
-      <c r="V396" s="33"/>
+      <c r="V396" s="22"/>
       <c r="W396" s="20"/>
       <c r="X396" s="9"/>
     </row>
@@ -10925,7 +10925,7 @@
       <c r="S397" s="14"/>
       <c r="T397" s="9"/>
       <c r="U397" s="20"/>
-      <c r="V397" s="33"/>
+      <c r="V397" s="22"/>
       <c r="W397" s="20"/>
       <c r="X397" s="9"/>
     </row>
@@ -10951,7 +10951,7 @@
       <c r="S398" s="14"/>
       <c r="T398" s="9"/>
       <c r="U398" s="20"/>
-      <c r="V398" s="33"/>
+      <c r="V398" s="22"/>
       <c r="W398" s="20"/>
       <c r="X398" s="9"/>
     </row>
@@ -10977,7 +10977,7 @@
       <c r="S399" s="14"/>
       <c r="T399" s="9"/>
       <c r="U399" s="20"/>
-      <c r="V399" s="33"/>
+      <c r="V399" s="22"/>
       <c r="W399" s="20"/>
       <c r="X399" s="9"/>
     </row>
@@ -11003,7 +11003,7 @@
       <c r="S400" s="14"/>
       <c r="T400" s="9"/>
       <c r="U400" s="20"/>
-      <c r="V400" s="33"/>
+      <c r="V400" s="22"/>
       <c r="W400" s="20"/>
       <c r="X400" s="9"/>
     </row>
@@ -11029,7 +11029,7 @@
       <c r="S401" s="14"/>
       <c r="T401" s="9"/>
       <c r="U401" s="20"/>
-      <c r="V401" s="33"/>
+      <c r="V401" s="22"/>
       <c r="W401" s="20"/>
       <c r="X401" s="9"/>
     </row>
@@ -11055,7 +11055,7 @@
       <c r="S402" s="14"/>
       <c r="T402" s="9"/>
       <c r="U402" s="20"/>
-      <c r="V402" s="33"/>
+      <c r="V402" s="22"/>
       <c r="W402" s="20"/>
       <c r="X402" s="9"/>
     </row>
@@ -11081,7 +11081,7 @@
       <c r="S403" s="14"/>
       <c r="T403" s="9"/>
       <c r="U403" s="20"/>
-      <c r="V403" s="33"/>
+      <c r="V403" s="22"/>
       <c r="W403" s="20"/>
       <c r="X403" s="9"/>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="S404" s="14"/>
       <c r="T404" s="9"/>
       <c r="U404" s="20"/>
-      <c r="V404" s="33"/>
+      <c r="V404" s="22"/>
       <c r="W404" s="20"/>
       <c r="X404" s="9"/>
     </row>
@@ -11133,7 +11133,7 @@
       <c r="S405" s="14"/>
       <c r="T405" s="9"/>
       <c r="U405" s="20"/>
-      <c r="V405" s="33"/>
+      <c r="V405" s="22"/>
       <c r="W405" s="20"/>
       <c r="X405" s="9"/>
     </row>
@@ -11159,7 +11159,7 @@
       <c r="S406" s="14"/>
       <c r="T406" s="9"/>
       <c r="U406" s="20"/>
-      <c r="V406" s="33"/>
+      <c r="V406" s="22"/>
       <c r="W406" s="20"/>
       <c r="X406" s="9"/>
     </row>
@@ -11185,7 +11185,7 @@
       <c r="S407" s="14"/>
       <c r="T407" s="9"/>
       <c r="U407" s="20"/>
-      <c r="V407" s="33"/>
+      <c r="V407" s="22"/>
       <c r="W407" s="20"/>
       <c r="X407" s="9"/>
     </row>
@@ -11211,7 +11211,7 @@
       <c r="S408" s="14"/>
       <c r="T408" s="9"/>
       <c r="U408" s="20"/>
-      <c r="V408" s="33"/>
+      <c r="V408" s="22"/>
       <c r="W408" s="20"/>
       <c r="X408" s="9"/>
     </row>
@@ -11237,7 +11237,7 @@
       <c r="S409" s="14"/>
       <c r="T409" s="9"/>
       <c r="U409" s="20"/>
-      <c r="V409" s="33"/>
+      <c r="V409" s="22"/>
       <c r="W409" s="20"/>
       <c r="X409" s="9"/>
     </row>
@@ -11263,7 +11263,7 @@
       <c r="S410" s="14"/>
       <c r="T410" s="9"/>
       <c r="U410" s="20"/>
-      <c r="V410" s="33"/>
+      <c r="V410" s="22"/>
       <c r="W410" s="20"/>
       <c r="X410" s="9"/>
     </row>
@@ -11289,7 +11289,7 @@
       <c r="S411" s="14"/>
       <c r="T411" s="9"/>
       <c r="U411" s="20"/>
-      <c r="V411" s="33"/>
+      <c r="V411" s="22"/>
       <c r="W411" s="20"/>
       <c r="X411" s="9"/>
     </row>
@@ -11315,7 +11315,7 @@
       <c r="S412" s="14"/>
       <c r="T412" s="9"/>
       <c r="U412" s="20"/>
-      <c r="V412" s="33"/>
+      <c r="V412" s="22"/>
       <c r="W412" s="20"/>
       <c r="X412" s="9"/>
     </row>
@@ -11341,7 +11341,7 @@
       <c r="S413" s="14"/>
       <c r="T413" s="9"/>
       <c r="U413" s="20"/>
-      <c r="V413" s="33"/>
+      <c r="V413" s="22"/>
       <c r="W413" s="20"/>
       <c r="X413" s="9"/>
     </row>
@@ -11367,7 +11367,7 @@
       <c r="S414" s="14"/>
       <c r="T414" s="9"/>
       <c r="U414" s="20"/>
-      <c r="V414" s="33"/>
+      <c r="V414" s="22"/>
       <c r="W414" s="20"/>
       <c r="X414" s="9"/>
     </row>
@@ -11393,7 +11393,7 @@
       <c r="S415" s="14"/>
       <c r="T415" s="9"/>
       <c r="U415" s="20"/>
-      <c r="V415" s="33"/>
+      <c r="V415" s="22"/>
       <c r="W415" s="20"/>
       <c r="X415" s="9"/>
     </row>
@@ -11419,7 +11419,7 @@
       <c r="S416" s="14"/>
       <c r="T416" s="9"/>
       <c r="U416" s="20"/>
-      <c r="V416" s="33"/>
+      <c r="V416" s="22"/>
       <c r="W416" s="20"/>
       <c r="X416" s="9"/>
     </row>
@@ -11445,7 +11445,7 @@
       <c r="S417" s="14"/>
       <c r="T417" s="9"/>
       <c r="U417" s="20"/>
-      <c r="V417" s="33"/>
+      <c r="V417" s="22"/>
       <c r="W417" s="20"/>
       <c r="X417" s="9"/>
     </row>
@@ -11471,7 +11471,7 @@
       <c r="S418" s="14"/>
       <c r="T418" s="9"/>
       <c r="U418" s="20"/>
-      <c r="V418" s="33"/>
+      <c r="V418" s="22"/>
       <c r="W418" s="20"/>
       <c r="X418" s="9"/>
     </row>
@@ -11497,7 +11497,7 @@
       <c r="S419" s="14"/>
       <c r="T419" s="9"/>
       <c r="U419" s="20"/>
-      <c r="V419" s="33"/>
+      <c r="V419" s="22"/>
       <c r="W419" s="20"/>
       <c r="X419" s="9"/>
     </row>
@@ -11523,7 +11523,7 @@
       <c r="S420" s="14"/>
       <c r="T420" s="9"/>
       <c r="U420" s="20"/>
-      <c r="V420" s="33"/>
+      <c r="V420" s="22"/>
       <c r="W420" s="20"/>
       <c r="X420" s="9"/>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="S421" s="14"/>
       <c r="T421" s="9"/>
       <c r="U421" s="20"/>
-      <c r="V421" s="33"/>
+      <c r="V421" s="22"/>
       <c r="W421" s="20"/>
       <c r="X421" s="9"/>
     </row>
@@ -11575,7 +11575,7 @@
       <c r="S422" s="14"/>
       <c r="T422" s="9"/>
       <c r="U422" s="20"/>
-      <c r="V422" s="33"/>
+      <c r="V422" s="22"/>
       <c r="W422" s="20"/>
       <c r="X422" s="9"/>
     </row>
@@ -11601,7 +11601,7 @@
       <c r="S423" s="14"/>
       <c r="T423" s="9"/>
       <c r="U423" s="20"/>
-      <c r="V423" s="33"/>
+      <c r="V423" s="22"/>
       <c r="W423" s="20"/>
       <c r="X423" s="9"/>
     </row>
@@ -11627,7 +11627,7 @@
       <c r="S424" s="14"/>
       <c r="T424" s="9"/>
       <c r="U424" s="20"/>
-      <c r="V424" s="33"/>
+      <c r="V424" s="22"/>
       <c r="W424" s="20"/>
       <c r="X424" s="9"/>
     </row>
@@ -11653,7 +11653,7 @@
       <c r="S425" s="14"/>
       <c r="T425" s="9"/>
       <c r="U425" s="20"/>
-      <c r="V425" s="33"/>
+      <c r="V425" s="22"/>
       <c r="W425" s="20"/>
       <c r="X425" s="9"/>
     </row>
@@ -11679,7 +11679,7 @@
       <c r="S426" s="14"/>
       <c r="T426" s="9"/>
       <c r="U426" s="20"/>
-      <c r="V426" s="33"/>
+      <c r="V426" s="22"/>
       <c r="W426" s="20"/>
       <c r="X426" s="9"/>
     </row>
@@ -11705,7 +11705,7 @@
       <c r="S427" s="14"/>
       <c r="T427" s="9"/>
       <c r="U427" s="20"/>
-      <c r="V427" s="33"/>
+      <c r="V427" s="22"/>
       <c r="W427" s="20"/>
       <c r="X427" s="9"/>
     </row>
@@ -11731,7 +11731,7 @@
       <c r="S428" s="14"/>
       <c r="T428" s="9"/>
       <c r="U428" s="20"/>
-      <c r="V428" s="33"/>
+      <c r="V428" s="22"/>
       <c r="W428" s="20"/>
       <c r="X428" s="9"/>
     </row>
@@ -11757,7 +11757,7 @@
       <c r="S429" s="14"/>
       <c r="T429" s="9"/>
       <c r="U429" s="20"/>
-      <c r="V429" s="33"/>
+      <c r="V429" s="22"/>
       <c r="W429" s="20"/>
       <c r="X429" s="9"/>
     </row>
@@ -11783,7 +11783,7 @@
       <c r="S430" s="14"/>
       <c r="T430" s="9"/>
       <c r="U430" s="20"/>
-      <c r="V430" s="33"/>
+      <c r="V430" s="22"/>
       <c r="W430" s="20"/>
       <c r="X430" s="9"/>
     </row>
@@ -11809,7 +11809,7 @@
       <c r="S431" s="14"/>
       <c r="T431" s="9"/>
       <c r="U431" s="20"/>
-      <c r="V431" s="33"/>
+      <c r="V431" s="22"/>
       <c r="W431" s="20"/>
       <c r="X431" s="9"/>
     </row>
@@ -11835,7 +11835,7 @@
       <c r="S432" s="14"/>
       <c r="T432" s="9"/>
       <c r="U432" s="20"/>
-      <c r="V432" s="33"/>
+      <c r="V432" s="22"/>
       <c r="W432" s="20"/>
       <c r="X432" s="9"/>
     </row>
@@ -11861,7 +11861,7 @@
       <c r="S433" s="14"/>
       <c r="T433" s="9"/>
       <c r="U433" s="20"/>
-      <c r="V433" s="33"/>
+      <c r="V433" s="22"/>
       <c r="W433" s="20"/>
       <c r="X433" s="9"/>
     </row>
@@ -11887,7 +11887,7 @@
       <c r="S434" s="14"/>
       <c r="T434" s="9"/>
       <c r="U434" s="20"/>
-      <c r="V434" s="33"/>
+      <c r="V434" s="22"/>
       <c r="W434" s="20"/>
       <c r="X434" s="9"/>
     </row>
@@ -11913,7 +11913,7 @@
       <c r="S435" s="14"/>
       <c r="T435" s="9"/>
       <c r="U435" s="20"/>
-      <c r="V435" s="33"/>
+      <c r="V435" s="22"/>
       <c r="W435" s="20"/>
       <c r="X435" s="9"/>
     </row>
@@ -11939,7 +11939,7 @@
       <c r="S436" s="14"/>
       <c r="T436" s="9"/>
       <c r="U436" s="20"/>
-      <c r="V436" s="33"/>
+      <c r="V436" s="22"/>
       <c r="W436" s="20"/>
       <c r="X436" s="9"/>
     </row>
@@ -11965,7 +11965,7 @@
       <c r="S437" s="14"/>
       <c r="T437" s="9"/>
       <c r="U437" s="20"/>
-      <c r="V437" s="33"/>
+      <c r="V437" s="22"/>
       <c r="W437" s="20"/>
       <c r="X437" s="9"/>
     </row>
@@ -11991,7 +11991,7 @@
       <c r="S438" s="14"/>
       <c r="T438" s="9"/>
       <c r="U438" s="20"/>
-      <c r="V438" s="33"/>
+      <c r="V438" s="22"/>
       <c r="W438" s="20"/>
       <c r="X438" s="9"/>
     </row>
@@ -12017,7 +12017,7 @@
       <c r="S439" s="14"/>
       <c r="T439" s="9"/>
       <c r="U439" s="20"/>
-      <c r="V439" s="33"/>
+      <c r="V439" s="22"/>
       <c r="W439" s="20"/>
       <c r="X439" s="9"/>
     </row>
@@ -12043,7 +12043,7 @@
       <c r="S440" s="14"/>
       <c r="T440" s="9"/>
       <c r="U440" s="20"/>
-      <c r="V440" s="33"/>
+      <c r="V440" s="22"/>
       <c r="W440" s="20"/>
       <c r="X440" s="9"/>
     </row>
@@ -12069,7 +12069,7 @@
       <c r="S441" s="14"/>
       <c r="T441" s="9"/>
       <c r="U441" s="20"/>
-      <c r="V441" s="33"/>
+      <c r="V441" s="22"/>
       <c r="W441" s="20"/>
       <c r="X441" s="9"/>
     </row>
@@ -12095,7 +12095,7 @@
       <c r="S442" s="14"/>
       <c r="T442" s="9"/>
       <c r="U442" s="20"/>
-      <c r="V442" s="33"/>
+      <c r="V442" s="22"/>
       <c r="W442" s="20"/>
       <c r="X442" s="9"/>
     </row>
@@ -12121,7 +12121,7 @@
       <c r="S443" s="14"/>
       <c r="T443" s="9"/>
       <c r="U443" s="20"/>
-      <c r="V443" s="33"/>
+      <c r="V443" s="22"/>
       <c r="W443" s="20"/>
       <c r="X443" s="9"/>
     </row>
@@ -12147,7 +12147,7 @@
       <c r="S444" s="14"/>
       <c r="T444" s="9"/>
       <c r="U444" s="20"/>
-      <c r="V444" s="33"/>
+      <c r="V444" s="22"/>
       <c r="W444" s="20"/>
       <c r="X444" s="9"/>
     </row>
@@ -12173,7 +12173,7 @@
       <c r="S445" s="14"/>
       <c r="T445" s="9"/>
       <c r="U445" s="20"/>
-      <c r="V445" s="33"/>
+      <c r="V445" s="22"/>
       <c r="W445" s="20"/>
       <c r="X445" s="9"/>
     </row>
@@ -12199,7 +12199,7 @@
       <c r="S446" s="14"/>
       <c r="T446" s="9"/>
       <c r="U446" s="20"/>
-      <c r="V446" s="33"/>
+      <c r="V446" s="22"/>
       <c r="W446" s="20"/>
       <c r="X446" s="9"/>
     </row>
@@ -12225,7 +12225,7 @@
       <c r="S447" s="14"/>
       <c r="T447" s="9"/>
       <c r="U447" s="20"/>
-      <c r="V447" s="33"/>
+      <c r="V447" s="22"/>
       <c r="W447" s="20"/>
       <c r="X447" s="9"/>
     </row>
@@ -12251,7 +12251,7 @@
       <c r="S448" s="14"/>
       <c r="T448" s="9"/>
       <c r="U448" s="20"/>
-      <c r="V448" s="33"/>
+      <c r="V448" s="22"/>
       <c r="W448" s="20"/>
       <c r="X448" s="9"/>
     </row>
@@ -12277,7 +12277,7 @@
       <c r="S449" s="14"/>
       <c r="T449" s="9"/>
       <c r="U449" s="20"/>
-      <c r="V449" s="33"/>
+      <c r="V449" s="22"/>
       <c r="W449" s="20"/>
       <c r="X449" s="9"/>
     </row>
@@ -12303,7 +12303,7 @@
       <c r="S450" s="14"/>
       <c r="T450" s="9"/>
       <c r="U450" s="20"/>
-      <c r="V450" s="33"/>
+      <c r="V450" s="22"/>
       <c r="W450" s="20"/>
       <c r="X450" s="9"/>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="S451" s="14"/>
       <c r="T451" s="9"/>
       <c r="U451" s="20"/>
-      <c r="V451" s="33"/>
+      <c r="V451" s="22"/>
       <c r="W451" s="20"/>
       <c r="X451" s="9"/>
     </row>
@@ -12355,7 +12355,7 @@
       <c r="S452" s="14"/>
       <c r="T452" s="9"/>
       <c r="U452" s="20"/>
-      <c r="V452" s="33"/>
+      <c r="V452" s="22"/>
       <c r="W452" s="20"/>
       <c r="X452" s="9"/>
     </row>
@@ -12381,7 +12381,7 @@
       <c r="S453" s="14"/>
       <c r="T453" s="9"/>
       <c r="U453" s="20"/>
-      <c r="V453" s="33"/>
+      <c r="V453" s="22"/>
       <c r="W453" s="20"/>
       <c r="X453" s="9"/>
     </row>
@@ -12407,7 +12407,7 @@
       <c r="S454" s="14"/>
       <c r="T454" s="9"/>
       <c r="U454" s="20"/>
-      <c r="V454" s="33"/>
+      <c r="V454" s="22"/>
       <c r="W454" s="20"/>
       <c r="X454" s="9"/>
     </row>
@@ -12433,7 +12433,7 @@
       <c r="S455" s="14"/>
       <c r="T455" s="9"/>
       <c r="U455" s="20"/>
-      <c r="V455" s="33"/>
+      <c r="V455" s="22"/>
       <c r="W455" s="20"/>
       <c r="X455" s="9"/>
     </row>
@@ -12459,7 +12459,7 @@
       <c r="S456" s="14"/>
       <c r="T456" s="9"/>
       <c r="U456" s="20"/>
-      <c r="V456" s="33"/>
+      <c r="V456" s="22"/>
       <c r="W456" s="20"/>
       <c r="X456" s="9"/>
     </row>
@@ -12485,7 +12485,7 @@
       <c r="S457" s="14"/>
       <c r="T457" s="9"/>
       <c r="U457" s="20"/>
-      <c r="V457" s="33"/>
+      <c r="V457" s="22"/>
       <c r="W457" s="20"/>
       <c r="X457" s="9"/>
     </row>
@@ -12511,7 +12511,7 @@
       <c r="S458" s="14"/>
       <c r="T458" s="9"/>
       <c r="U458" s="20"/>
-      <c r="V458" s="33"/>
+      <c r="V458" s="22"/>
       <c r="W458" s="20"/>
       <c r="X458" s="9"/>
     </row>
@@ -12537,7 +12537,7 @@
       <c r="S459" s="14"/>
       <c r="T459" s="9"/>
       <c r="U459" s="20"/>
-      <c r="V459" s="33"/>
+      <c r="V459" s="22"/>
       <c r="W459" s="20"/>
       <c r="X459" s="9"/>
     </row>
@@ -12563,7 +12563,7 @@
       <c r="S460" s="14"/>
       <c r="T460" s="9"/>
       <c r="U460" s="20"/>
-      <c r="V460" s="33"/>
+      <c r="V460" s="22"/>
       <c r="W460" s="20"/>
       <c r="X460" s="9"/>
     </row>
@@ -12589,7 +12589,7 @@
       <c r="S461" s="14"/>
       <c r="T461" s="9"/>
       <c r="U461" s="20"/>
-      <c r="V461" s="33"/>
+      <c r="V461" s="22"/>
       <c r="W461" s="20"/>
       <c r="X461" s="9"/>
     </row>
@@ -12615,7 +12615,7 @@
       <c r="S462" s="14"/>
       <c r="T462" s="9"/>
       <c r="U462" s="20"/>
-      <c r="V462" s="33"/>
+      <c r="V462" s="22"/>
       <c r="W462" s="20"/>
       <c r="X462" s="9"/>
     </row>
@@ -12641,7 +12641,7 @@
       <c r="S463" s="14"/>
       <c r="T463" s="9"/>
       <c r="U463" s="20"/>
-      <c r="V463" s="33"/>
+      <c r="V463" s="22"/>
       <c r="W463" s="20"/>
       <c r="X463" s="9"/>
     </row>
@@ -12667,7 +12667,7 @@
       <c r="S464" s="14"/>
       <c r="T464" s="9"/>
       <c r="U464" s="20"/>
-      <c r="V464" s="33"/>
+      <c r="V464" s="22"/>
       <c r="W464" s="20"/>
       <c r="X464" s="9"/>
     </row>
@@ -12693,7 +12693,7 @@
       <c r="S465" s="14"/>
       <c r="T465" s="9"/>
       <c r="U465" s="20"/>
-      <c r="V465" s="33"/>
+      <c r="V465" s="22"/>
       <c r="W465" s="20"/>
       <c r="X465" s="9"/>
     </row>
@@ -12719,7 +12719,7 @@
       <c r="S466" s="14"/>
       <c r="T466" s="9"/>
       <c r="U466" s="20"/>
-      <c r="V466" s="33"/>
+      <c r="V466" s="22"/>
       <c r="W466" s="20"/>
       <c r="X466" s="9"/>
     </row>
@@ -12745,7 +12745,7 @@
       <c r="S467" s="14"/>
       <c r="T467" s="9"/>
       <c r="U467" s="20"/>
-      <c r="V467" s="33"/>
+      <c r="V467" s="22"/>
       <c r="W467" s="20"/>
       <c r="X467" s="9"/>
     </row>
@@ -12771,7 +12771,7 @@
       <c r="S468" s="14"/>
       <c r="T468" s="9"/>
       <c r="U468" s="20"/>
-      <c r="V468" s="33"/>
+      <c r="V468" s="22"/>
       <c r="W468" s="20"/>
       <c r="X468" s="9"/>
     </row>
@@ -12797,7 +12797,7 @@
       <c r="S469" s="14"/>
       <c r="T469" s="9"/>
       <c r="U469" s="20"/>
-      <c r="V469" s="33"/>
+      <c r="V469" s="22"/>
       <c r="W469" s="20"/>
       <c r="X469" s="9"/>
     </row>
@@ -12823,7 +12823,7 @@
       <c r="S470" s="14"/>
       <c r="T470" s="9"/>
       <c r="U470" s="20"/>
-      <c r="V470" s="33"/>
+      <c r="V470" s="22"/>
       <c r="W470" s="20"/>
       <c r="X470" s="9"/>
     </row>
@@ -12849,7 +12849,7 @@
       <c r="S471" s="14"/>
       <c r="T471" s="9"/>
       <c r="U471" s="20"/>
-      <c r="V471" s="33"/>
+      <c r="V471" s="22"/>
       <c r="W471" s="20"/>
       <c r="X471" s="9"/>
     </row>
@@ -12875,7 +12875,7 @@
       <c r="S472" s="14"/>
       <c r="T472" s="9"/>
       <c r="U472" s="20"/>
-      <c r="V472" s="33"/>
+      <c r="V472" s="22"/>
       <c r="W472" s="20"/>
       <c r="X472" s="9"/>
     </row>
@@ -12901,7 +12901,7 @@
       <c r="S473" s="14"/>
       <c r="T473" s="9"/>
       <c r="U473" s="20"/>
-      <c r="V473" s="33"/>
+      <c r="V473" s="22"/>
       <c r="W473" s="20"/>
       <c r="X473" s="9"/>
     </row>
@@ -12927,7 +12927,7 @@
       <c r="S474" s="14"/>
       <c r="T474" s="9"/>
       <c r="U474" s="20"/>
-      <c r="V474" s="33"/>
+      <c r="V474" s="22"/>
       <c r="W474" s="20"/>
       <c r="X474" s="9"/>
     </row>
@@ -12953,7 +12953,7 @@
       <c r="S475" s="14"/>
       <c r="T475" s="9"/>
       <c r="U475" s="20"/>
-      <c r="V475" s="33"/>
+      <c r="V475" s="22"/>
       <c r="W475" s="20"/>
       <c r="X475" s="9"/>
     </row>
@@ -12979,7 +12979,7 @@
       <c r="S476" s="14"/>
       <c r="T476" s="9"/>
       <c r="U476" s="20"/>
-      <c r="V476" s="33"/>
+      <c r="V476" s="22"/>
       <c r="W476" s="20"/>
       <c r="X476" s="9"/>
     </row>
@@ -13005,7 +13005,7 @@
       <c r="S477" s="14"/>
       <c r="T477" s="9"/>
       <c r="U477" s="20"/>
-      <c r="V477" s="33"/>
+      <c r="V477" s="22"/>
       <c r="W477" s="20"/>
       <c r="X477" s="9"/>
     </row>
@@ -13031,7 +13031,7 @@
       <c r="S478" s="14"/>
       <c r="T478" s="9"/>
       <c r="U478" s="20"/>
-      <c r="V478" s="33"/>
+      <c r="V478" s="22"/>
       <c r="W478" s="20"/>
       <c r="X478" s="9"/>
     </row>
@@ -13057,7 +13057,7 @@
       <c r="S479" s="14"/>
       <c r="T479" s="9"/>
       <c r="U479" s="20"/>
-      <c r="V479" s="33"/>
+      <c r="V479" s="22"/>
       <c r="W479" s="20"/>
       <c r="X479" s="9"/>
     </row>
@@ -13083,7 +13083,7 @@
       <c r="S480" s="14"/>
       <c r="T480" s="9"/>
       <c r="U480" s="20"/>
-      <c r="V480" s="33"/>
+      <c r="V480" s="22"/>
       <c r="W480" s="20"/>
       <c r="X480" s="9"/>
     </row>
@@ -13109,7 +13109,7 @@
       <c r="S481" s="14"/>
       <c r="T481" s="9"/>
       <c r="U481" s="20"/>
-      <c r="V481" s="33"/>
+      <c r="V481" s="22"/>
       <c r="W481" s="20"/>
       <c r="X481" s="9"/>
     </row>
@@ -13135,7 +13135,7 @@
       <c r="S482" s="14"/>
       <c r="T482" s="9"/>
       <c r="U482" s="20"/>
-      <c r="V482" s="33"/>
+      <c r="V482" s="22"/>
       <c r="W482" s="20"/>
       <c r="X482" s="9"/>
     </row>
@@ -13161,7 +13161,7 @@
       <c r="S483" s="14"/>
       <c r="T483" s="9"/>
       <c r="U483" s="20"/>
-      <c r="V483" s="33"/>
+      <c r="V483" s="22"/>
       <c r="W483" s="20"/>
       <c r="X483" s="9"/>
     </row>
@@ -13187,7 +13187,7 @@
       <c r="S484" s="14"/>
       <c r="T484" s="9"/>
       <c r="U484" s="20"/>
-      <c r="V484" s="33"/>
+      <c r="V484" s="22"/>
       <c r="W484" s="20"/>
       <c r="X484" s="9"/>
     </row>
@@ -13213,7 +13213,7 @@
       <c r="S485" s="14"/>
       <c r="T485" s="9"/>
       <c r="U485" s="20"/>
-      <c r="V485" s="33"/>
+      <c r="V485" s="22"/>
       <c r="W485" s="20"/>
       <c r="X485" s="9"/>
     </row>
@@ -13239,7 +13239,7 @@
       <c r="S486" s="14"/>
       <c r="T486" s="9"/>
       <c r="U486" s="20"/>
-      <c r="V486" s="33"/>
+      <c r="V486" s="22"/>
       <c r="W486" s="20"/>
       <c r="X486" s="9"/>
     </row>
@@ -13265,7 +13265,7 @@
       <c r="S487" s="14"/>
       <c r="T487" s="9"/>
       <c r="U487" s="20"/>
-      <c r="V487" s="33"/>
+      <c r="V487" s="22"/>
       <c r="W487" s="20"/>
       <c r="X487" s="9"/>
     </row>
@@ -13291,7 +13291,7 @@
       <c r="S488" s="14"/>
       <c r="T488" s="9"/>
       <c r="U488" s="20"/>
-      <c r="V488" s="33"/>
+      <c r="V488" s="22"/>
       <c r="W488" s="20"/>
       <c r="X488" s="9"/>
     </row>
@@ -13317,7 +13317,7 @@
       <c r="S489" s="14"/>
       <c r="T489" s="9"/>
       <c r="U489" s="20"/>
-      <c r="V489" s="33"/>
+      <c r="V489" s="22"/>
       <c r="W489" s="20"/>
       <c r="X489" s="9"/>
     </row>
@@ -13343,7 +13343,7 @@
       <c r="S490" s="14"/>
       <c r="T490" s="9"/>
       <c r="U490" s="20"/>
-      <c r="V490" s="33"/>
+      <c r="V490" s="22"/>
       <c r="W490" s="20"/>
       <c r="X490" s="9"/>
     </row>
@@ -13369,7 +13369,7 @@
       <c r="S491" s="14"/>
       <c r="T491" s="9"/>
       <c r="U491" s="20"/>
-      <c r="V491" s="33"/>
+      <c r="V491" s="22"/>
       <c r="W491" s="20"/>
       <c r="X491" s="9"/>
     </row>
@@ -13395,7 +13395,7 @@
       <c r="S492" s="14"/>
       <c r="T492" s="9"/>
       <c r="U492" s="20"/>
-      <c r="V492" s="33"/>
+      <c r="V492" s="22"/>
       <c r="W492" s="20"/>
       <c r="X492" s="9"/>
     </row>
@@ -13421,7 +13421,7 @@
       <c r="S493" s="14"/>
       <c r="T493" s="9"/>
       <c r="U493" s="20"/>
-      <c r="V493" s="33"/>
+      <c r="V493" s="22"/>
       <c r="W493" s="20"/>
       <c r="X493" s="9"/>
     </row>
@@ -13447,7 +13447,7 @@
       <c r="S494" s="14"/>
       <c r="T494" s="9"/>
       <c r="U494" s="20"/>
-      <c r="V494" s="33"/>
+      <c r="V494" s="22"/>
       <c r="W494" s="20"/>
       <c r="X494" s="9"/>
     </row>
@@ -13473,7 +13473,7 @@
       <c r="S495" s="14"/>
       <c r="T495" s="9"/>
       <c r="U495" s="20"/>
-      <c r="V495" s="33"/>
+      <c r="V495" s="22"/>
       <c r="W495" s="20"/>
       <c r="X495" s="9"/>
     </row>
@@ -13499,7 +13499,7 @@
       <c r="S496" s="14"/>
       <c r="T496" s="9"/>
       <c r="U496" s="20"/>
-      <c r="V496" s="33"/>
+      <c r="V496" s="22"/>
       <c r="W496" s="20"/>
       <c r="X496" s="9"/>
     </row>
@@ -13525,7 +13525,7 @@
       <c r="S497" s="14"/>
       <c r="T497" s="9"/>
       <c r="U497" s="20"/>
-      <c r="V497" s="33"/>
+      <c r="V497" s="22"/>
       <c r="W497" s="20"/>
       <c r="X497" s="9"/>
     </row>
@@ -13551,7 +13551,7 @@
       <c r="S498" s="14"/>
       <c r="T498" s="9"/>
       <c r="U498" s="20"/>
-      <c r="V498" s="33"/>
+      <c r="V498" s="22"/>
       <c r="W498" s="20"/>
       <c r="X498" s="9"/>
     </row>
@@ -13577,7 +13577,7 @@
       <c r="S499" s="14"/>
       <c r="T499" s="9"/>
       <c r="U499" s="20"/>
-      <c r="V499" s="33"/>
+      <c r="V499" s="22"/>
       <c r="W499" s="20"/>
       <c r="X499" s="9"/>
     </row>
@@ -13603,7 +13603,7 @@
       <c r="S500" s="14"/>
       <c r="T500" s="9"/>
       <c r="U500" s="20"/>
-      <c r="V500" s="33"/>
+      <c r="V500" s="22"/>
       <c r="W500" s="20"/>
       <c r="X500" s="9"/>
     </row>
@@ -13629,7 +13629,7 @@
       <c r="S501" s="14"/>
       <c r="T501" s="9"/>
       <c r="U501" s="20"/>
-      <c r="V501" s="33"/>
+      <c r="V501" s="22"/>
       <c r="W501" s="20"/>
       <c r="X501" s="9"/>
     </row>
@@ -13655,7 +13655,7 @@
       <c r="S502" s="14"/>
       <c r="T502" s="9"/>
       <c r="U502" s="20"/>
-      <c r="V502" s="33"/>
+      <c r="V502" s="22"/>
       <c r="W502" s="20"/>
       <c r="X502" s="9"/>
     </row>
@@ -13681,7 +13681,7 @@
       <c r="S503" s="14"/>
       <c r="T503" s="9"/>
       <c r="U503" s="20"/>
-      <c r="V503" s="33"/>
+      <c r="V503" s="22"/>
       <c r="W503" s="20"/>
       <c r="X503" s="9"/>
     </row>
@@ -13707,7 +13707,7 @@
       <c r="S504" s="14"/>
       <c r="T504" s="9"/>
       <c r="U504" s="20"/>
-      <c r="V504" s="33"/>
+      <c r="V504" s="22"/>
       <c r="W504" s="20"/>
       <c r="X504" s="9"/>
     </row>
@@ -13733,7 +13733,7 @@
       <c r="S505" s="14"/>
       <c r="T505" s="9"/>
       <c r="U505" s="20"/>
-      <c r="V505" s="33"/>
+      <c r="V505" s="22"/>
       <c r="W505" s="20"/>
       <c r="X505" s="9"/>
     </row>
@@ -13759,7 +13759,7 @@
       <c r="S506" s="14"/>
       <c r="T506" s="9"/>
       <c r="U506" s="20"/>
-      <c r="V506" s="33"/>
+      <c r="V506" s="22"/>
       <c r="W506" s="20"/>
       <c r="X506" s="9"/>
     </row>
@@ -13785,7 +13785,7 @@
       <c r="S507" s="14"/>
       <c r="T507" s="9"/>
       <c r="U507" s="20"/>
-      <c r="V507" s="33"/>
+      <c r="V507" s="22"/>
       <c r="W507" s="20"/>
       <c r="X507" s="9"/>
     </row>
@@ -13811,7 +13811,7 @@
       <c r="S508" s="14"/>
       <c r="T508" s="9"/>
       <c r="U508" s="20"/>
-      <c r="V508" s="33"/>
+      <c r="V508" s="22"/>
       <c r="W508" s="20"/>
       <c r="X508" s="9"/>
     </row>
@@ -13837,7 +13837,7 @@
       <c r="S509" s="14"/>
       <c r="T509" s="9"/>
       <c r="U509" s="20"/>
-      <c r="V509" s="33"/>
+      <c r="V509" s="22"/>
       <c r="W509" s="20"/>
       <c r="X509" s="9"/>
     </row>
@@ -13863,7 +13863,7 @@
       <c r="S510" s="14"/>
       <c r="T510" s="9"/>
       <c r="U510" s="20"/>
-      <c r="V510" s="33"/>
+      <c r="V510" s="22"/>
       <c r="W510" s="20"/>
       <c r="X510" s="9"/>
     </row>
@@ -13889,7 +13889,7 @@
       <c r="S511" s="14"/>
       <c r="T511" s="9"/>
       <c r="U511" s="20"/>
-      <c r="V511" s="33"/>
+      <c r="V511" s="22"/>
       <c r="W511" s="20"/>
       <c r="X511" s="9"/>
     </row>
@@ -13915,7 +13915,7 @@
       <c r="S512" s="14"/>
       <c r="T512" s="9"/>
       <c r="U512" s="20"/>
-      <c r="V512" s="33"/>
+      <c r="V512" s="22"/>
       <c r="W512" s="20"/>
       <c r="X512" s="9"/>
     </row>
@@ -13941,7 +13941,7 @@
       <c r="S513" s="14"/>
       <c r="T513" s="9"/>
       <c r="U513" s="20"/>
-      <c r="V513" s="33"/>
+      <c r="V513" s="22"/>
       <c r="W513" s="20"/>
       <c r="X513" s="9"/>
     </row>
@@ -13967,7 +13967,7 @@
       <c r="S514" s="14"/>
       <c r="T514" s="9"/>
       <c r="U514" s="20"/>
-      <c r="V514" s="33"/>
+      <c r="V514" s="22"/>
       <c r="W514" s="20"/>
       <c r="X514" s="9"/>
     </row>
@@ -21353,21 +21353,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G7"/>
+    <mergeCell ref="I6:O7"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A8:G9"/>
     <mergeCell ref="I8:O9"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="I11:O11"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A6:G7"/>
-    <mergeCell ref="I6:O7"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="I12:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/resource/excel/template_delivery.xlsx
+++ b/server/resource/excel/template_delivery.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujun/gva/gin-vue-admin/server/resource/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5D3CE-FF3E-D54C-81B7-0CB8FB7848D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E09325-EEE8-5747-BBC3-E317EB60D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13420" xr2:uid="{C538948F-8F36-444C-A3AB-77126F948885}"/>
   </bookViews>
@@ -240,6 +240,24 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -257,24 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -713,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,7 +724,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -763,21 +763,21 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="12"/>
       <c r="T6" s="1"/>
       <c r="U6" s="17"/>
@@ -786,21 +786,21 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="12"/>
       <c r="T7" s="1"/>
       <c r="U7" s="17"/>
@@ -809,21 +809,21 @@
       <c r="X7" s="17"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="13"/>
       <c r="T8" s="1"/>
       <c r="U8" s="17"/>
@@ -832,21 +832,21 @@
       <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="13"/>
       <c r="T9" s="1"/>
       <c r="U9" s="17"/>
@@ -855,20 +855,20 @@
       <c r="X9" s="17"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
       <c r="T10" s="1"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
@@ -876,74 +876,74 @@
       <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="26" t="s">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26" t="s">
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
     </row>
     <row r="14" spans="1:24" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="8"/>
@@ -972,30 +972,30 @@
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" s="6" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="30"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="24"/>
     </row>
     <row r="16" spans="1:24" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="8"/>
@@ -21373,7 +21373,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;9Bank Account Details:A/C No: 85415863 Sort Code: 309897 Account Name: S&amp;&amp;L FOOD TRANDING LTD</oddFooter>
+    <oddFooter>&amp;L&amp;"等线,常规"&amp;9&amp;K000000Bank Account Details:A/C No: 85415863 Sort Code: 309897 Account Name: S&amp;&amp;L FOOD TRADING LTD</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
